--- a/documentation/diccionario_ech_compatibilizado.xlsx
+++ b/documentation/diccionario_ech_compatibilizado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\empleo\datos\encuestas\ech\personas\bases compatibilizadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulapereda/Documents/OneDrive - Universidad de Montevideo/Econometrics II/Proyecto Final/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_18A66B28F27AE5F06589AFAE619EB2C1279A600E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{1CFBF958-BF00-7D42-A9FE-7D086AF972B0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="8700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,25 @@
     <sheet name="lab def" sheetId="7" r:id="rId6"/>
     <sheet name="lab val" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>amarroig</author>
   </authors>
   <commentList>
-    <comment ref="A305" authorId="0" shapeId="0">
+    <comment ref="A305" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2040,7 +2049,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2400,8 +2409,8 @@
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2492,6 +2501,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2527,6 +2553,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2702,24 +2745,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A351" sqref="A351"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="87.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.1640625" customWidth="1"/>
+    <col min="5" max="5" width="87.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>74</v>
       </c>
@@ -2736,7 +2779,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>63</v>
       </c>
@@ -2745,7 +2788,7 @@
       <c r="D2" s="42"/>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>79</v>
       </c>
@@ -2756,7 +2799,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>80</v>
       </c>
@@ -2767,7 +2810,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>81</v>
       </c>
@@ -2782,7 +2825,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="5">
@@ -2793,7 +2836,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>82</v>
       </c>
@@ -2804,7 +2847,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
@@ -2819,7 +2862,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="6">
@@ -2830,7 +2873,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="6">
@@ -2841,7 +2884,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="6">
@@ -2852,7 +2895,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="6">
@@ -2863,7 +2906,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="6">
@@ -2874,7 +2917,7 @@
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="6">
@@ -2885,7 +2928,7 @@
       </c>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="6">
@@ -2896,7 +2939,7 @@
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="6">
@@ -2907,7 +2950,7 @@
       </c>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="6">
@@ -2918,7 +2961,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="6">
@@ -2929,7 +2972,7 @@
       </c>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="5">
@@ -2940,7 +2983,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>84</v>
       </c>
@@ -2951,7 +2994,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -2966,7 +3009,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="6">
@@ -2977,7 +3020,7 @@
       </c>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="6">
@@ -2988,7 +3031,7 @@
       </c>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="6">
@@ -2999,7 +3042,7 @@
       </c>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="6">
@@ -3010,7 +3053,7 @@
       </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="6">
@@ -3021,7 +3064,7 @@
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="6">
@@ -3032,7 +3075,7 @@
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="6">
@@ -3043,7 +3086,7 @@
       </c>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="6">
@@ -3054,7 +3097,7 @@
       </c>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="6">
@@ -3065,7 +3108,7 @@
       </c>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="6">
@@ -3076,7 +3119,7 @@
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="6">
@@ -3087,7 +3130,7 @@
       </c>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="6">
@@ -3098,7 +3141,7 @@
       </c>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="6">
@@ -3109,7 +3152,7 @@
       </c>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="6">
@@ -3120,7 +3163,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="6">
@@ -3131,7 +3174,7 @@
       </c>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="6">
@@ -3142,7 +3185,7 @@
       </c>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="6">
@@ -3153,7 +3196,7 @@
       </c>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="5">
@@ -3164,7 +3207,7 @@
       </c>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -3181,7 +3224,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="6">
@@ -3194,7 +3237,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="6">
@@ -3205,7 +3248,7 @@
       </c>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="6">
@@ -3216,7 +3259,7 @@
       </c>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="6">
@@ -3227,7 +3270,7 @@
       </c>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="6">
@@ -3238,7 +3281,7 @@
       </c>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="6">
@@ -3249,7 +3292,7 @@
       </c>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="6">
@@ -3260,7 +3303,7 @@
       </c>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="6">
@@ -3271,7 +3314,7 @@
       </c>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="6">
@@ -3282,7 +3325,7 @@
       </c>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="6">
@@ -3293,7 +3336,7 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="6">
@@ -3304,7 +3347,7 @@
       </c>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="6">
@@ -3315,7 +3358,7 @@
       </c>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="6">
@@ -3326,7 +3369,7 @@
       </c>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="6">
@@ -3337,7 +3380,7 @@
       </c>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="6">
@@ -3348,7 +3391,7 @@
       </c>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="6">
@@ -3359,7 +3402,7 @@
       </c>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="6">
@@ -3370,7 +3413,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>87</v>
       </c>
@@ -3387,7 +3430,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="6">
@@ -3398,7 +3441,7 @@
       </c>
       <c r="E59" s="35"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="6">
@@ -3409,7 +3452,7 @@
       </c>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="5">
@@ -3420,7 +3463,7 @@
       </c>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>88</v>
       </c>
@@ -3435,7 +3478,7 @@
       </c>
       <c r="E62" s="27"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="5">
@@ -3446,7 +3489,7 @@
       </c>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>89</v>
       </c>
@@ -3457,7 +3500,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>90</v>
       </c>
@@ -3472,7 +3515,7 @@
       </c>
       <c r="E65" s="12"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="6">
@@ -3483,7 +3526,7 @@
       </c>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="6">
@@ -3494,7 +3537,7 @@
       </c>
       <c r="E67" s="6"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="6">
@@ -3505,7 +3548,7 @@
       </c>
       <c r="E68" s="6"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="6">
@@ -3516,7 +3559,7 @@
       </c>
       <c r="E69" s="6"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="6">
@@ -3527,7 +3570,7 @@
       </c>
       <c r="E70" s="6"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="5">
@@ -3538,7 +3581,7 @@
       </c>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>91</v>
       </c>
@@ -3553,7 +3596,7 @@
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="6">
@@ -3564,7 +3607,7 @@
       </c>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="6">
@@ -3575,7 +3618,7 @@
       </c>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="6">
@@ -3586,7 +3629,7 @@
       </c>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="5">
@@ -3597,7 +3640,7 @@
       </c>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="41" t="s">
         <v>67</v>
       </c>
@@ -3606,7 +3649,7 @@
       <c r="D77" s="42"/>
       <c r="E77" s="43"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>92</v>
       </c>
@@ -3621,7 +3664,7 @@
       </c>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="11"/>
       <c r="B79" s="7"/>
       <c r="C79" s="11">
@@ -3632,7 +3675,7 @@
       </c>
       <c r="E79" s="6"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="11"/>
       <c r="B80" s="7"/>
       <c r="C80" s="11">
@@ -3643,7 +3686,7 @@
       </c>
       <c r="E80" s="6"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="7"/>
       <c r="C81" s="11">
@@ -3654,7 +3697,7 @@
       </c>
       <c r="E81" s="6"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="36"/>
       <c r="C82" s="10">
@@ -3665,7 +3708,7 @@
       </c>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="29" t="s">
         <v>643</v>
       </c>
@@ -3682,7 +3725,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="6">
@@ -3693,7 +3736,7 @@
       </c>
       <c r="E84" s="6"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>93</v>
       </c>
@@ -3708,7 +3751,7 @@
       </c>
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="6">
@@ -3719,7 +3762,7 @@
       </c>
       <c r="E86" s="6"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="6">
@@ -3730,7 +3773,7 @@
       </c>
       <c r="E87" s="6"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="5">
@@ -3741,7 +3784,7 @@
       </c>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="41" t="s">
         <v>73</v>
       </c>
@@ -3750,7 +3793,7 @@
       <c r="D89" s="42"/>
       <c r="E89" s="43"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>94</v>
       </c>
@@ -3765,7 +3808,7 @@
       </c>
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="5">
@@ -3776,7 +3819,7 @@
       </c>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>95</v>
       </c>
@@ -3793,7 +3836,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="5">
@@ -3804,7 +3847,7 @@
       </c>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
         <v>224</v>
       </c>
@@ -3821,7 +3864,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="25"/>
       <c r="B95" s="10"/>
       <c r="C95" s="5">
@@ -3832,7 +3875,7 @@
       </c>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>225</v>
       </c>
@@ -3849,7 +3892,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="6">
@@ -3862,7 +3905,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="6">
@@ -3873,7 +3916,7 @@
       </c>
       <c r="E98" s="6"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="6">
@@ -3884,7 +3927,7 @@
       </c>
       <c r="E99" s="6"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="6">
@@ -3895,7 +3938,7 @@
       </c>
       <c r="E100" s="6"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="6">
@@ -3906,7 +3949,7 @@
       </c>
       <c r="E101" s="6"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>96</v>
       </c>
@@ -3919,7 +3962,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
         <v>623</v>
       </c>
@@ -3932,7 +3975,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>97</v>
       </c>
@@ -3949,7 +3992,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="11"/>
       <c r="C105" s="6">
@@ -3960,7 +4003,7 @@
       </c>
       <c r="E105" s="6"/>
     </row>
-    <row r="106" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="41" t="s">
         <v>228</v>
       </c>
@@ -3969,7 +4012,7 @@
       <c r="D106" s="42"/>
       <c r="E106" s="43"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>98</v>
       </c>
@@ -3986,7 +4029,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="6">
@@ -3997,7 +4040,7 @@
       </c>
       <c r="E108" s="6"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="6">
@@ -4008,7 +4051,7 @@
       </c>
       <c r="E109" s="6"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="6">
@@ -4019,7 +4062,7 @@
       </c>
       <c r="E110" s="6"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="6">
@@ -4030,7 +4073,7 @@
       </c>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="6">
@@ -4041,7 +4084,7 @@
       </c>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="6">
@@ -4052,7 +4095,7 @@
       </c>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="6">
@@ -4063,7 +4106,7 @@
       </c>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="6">
@@ -4074,7 +4117,7 @@
       </c>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="5">
@@ -4085,7 +4128,7 @@
       </c>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>226</v>
       </c>
@@ -4102,7 +4145,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="6">
@@ -4113,7 +4156,7 @@
       </c>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="6">
@@ -4124,7 +4167,7 @@
       </c>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="6">
@@ -4135,7 +4178,7 @@
       </c>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="6">
@@ -4146,7 +4189,7 @@
       </c>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="6">
@@ -4157,7 +4200,7 @@
       </c>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="5">
@@ -4168,7 +4211,7 @@
       </c>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>99</v>
       </c>
@@ -4185,7 +4228,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="6">
@@ -4196,7 +4239,7 @@
       </c>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="6">
@@ -4207,7 +4250,7 @@
       </c>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="6">
@@ -4218,7 +4261,7 @@
       </c>
       <c r="E127" s="6"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="5">
@@ -4229,7 +4272,7 @@
       </c>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>100</v>
       </c>
@@ -4244,7 +4287,7 @@
       </c>
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="5">
@@ -4255,7 +4298,7 @@
       </c>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>227</v>
       </c>
@@ -4272,7 +4315,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="6">
@@ -4283,7 +4326,7 @@
       </c>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="5">
@@ -4294,7 +4337,7 @@
       </c>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>101</v>
       </c>
@@ -4307,7 +4350,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>102</v>
       </c>
@@ -4324,7 +4367,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="6">
@@ -4337,7 +4380,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="6">
@@ -4350,7 +4393,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="6">
@@ -4361,7 +4404,7 @@
       </c>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="6">
@@ -4372,7 +4415,7 @@
       </c>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="6">
@@ -4383,7 +4426,7 @@
       </c>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="6">
@@ -4394,7 +4437,7 @@
       </c>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="5">
@@ -4405,7 +4448,7 @@
       </c>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>103</v>
       </c>
@@ -4418,7 +4461,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>117</v>
       </c>
@@ -4433,7 +4476,7 @@
       </c>
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="6">
@@ -4444,7 +4487,7 @@
       </c>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="6">
@@ -4455,7 +4498,7 @@
       </c>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="6">
@@ -4466,7 +4509,7 @@
       </c>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="6">
@@ -4477,7 +4520,7 @@
       </c>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="6">
@@ -4488,7 +4531,7 @@
       </c>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="6">
@@ -4499,7 +4542,7 @@
       </c>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="6">
@@ -4510,7 +4553,7 @@
       </c>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="6">
@@ -4521,7 +4564,7 @@
       </c>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="5">
@@ -4532,7 +4575,7 @@
       </c>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>104</v>
       </c>
@@ -4545,7 +4588,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>105</v>
       </c>
@@ -4558,7 +4601,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>106</v>
       </c>
@@ -4571,7 +4614,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>107</v>
       </c>
@@ -4584,7 +4627,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>108</v>
       </c>
@@ -4597,7 +4640,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="15" t="s">
         <v>109</v>
       </c>
@@ -4610,7 +4653,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="15" t="s">
         <v>110</v>
       </c>
@@ -4623,7 +4666,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>229</v>
       </c>
@@ -4638,7 +4681,7 @@
       </c>
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="6">
@@ -4649,7 +4692,7 @@
       </c>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="6">
@@ -4660,7 +4703,7 @@
       </c>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="5">
@@ -4671,7 +4714,7 @@
       </c>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>111</v>
       </c>
@@ -4688,7 +4731,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="5">
@@ -4699,7 +4742,7 @@
       </c>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>230</v>
       </c>
@@ -4716,7 +4759,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="6">
@@ -4727,7 +4770,7 @@
       </c>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="6">
@@ -4738,7 +4781,7 @@
       </c>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="5">
@@ -4749,7 +4792,7 @@
       </c>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
         <v>112</v>
       </c>
@@ -4762,7 +4805,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>231</v>
       </c>
@@ -4779,7 +4822,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="6">
@@ -4790,7 +4833,7 @@
       </c>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="5">
@@ -4801,7 +4844,7 @@
       </c>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>113</v>
       </c>
@@ -4821,7 +4864,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="5">
@@ -4832,7 +4875,7 @@
       </c>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>114</v>
       </c>
@@ -4849,7 +4892,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="5">
@@ -4860,7 +4903,7 @@
       </c>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>115</v>
       </c>
@@ -4877,7 +4920,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="5">
@@ -4888,7 +4931,7 @@
       </c>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>116</v>
       </c>
@@ -4905,7 +4948,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="5">
@@ -4916,7 +4959,7 @@
       </c>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="41" t="s">
         <v>232</v>
       </c>
@@ -4925,7 +4968,7 @@
       <c r="D183" s="42"/>
       <c r="E183" s="43"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="44" t="s">
         <v>3</v>
       </c>
@@ -4934,7 +4977,7 @@
       <c r="D184" s="45"/>
       <c r="E184" s="46"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
         <v>118</v>
       </c>
@@ -4945,7 +4988,7 @@
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
         <v>119</v>
       </c>
@@ -4956,7 +4999,7 @@
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
         <v>120</v>
       </c>
@@ -4967,7 +5010,7 @@
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
         <v>121</v>
       </c>
@@ -4978,7 +5021,7 @@
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
         <v>122</v>
       </c>
@@ -4989,7 +5032,7 @@
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>123</v>
       </c>
@@ -5000,7 +5043,7 @@
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
         <v>124</v>
       </c>
@@ -5011,14 +5054,14 @@
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
         <v>125</v>
       </c>
@@ -5029,7 +5072,7 @@
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
         <v>126</v>
       </c>
@@ -5040,7 +5083,7 @@
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
         <v>127</v>
       </c>
@@ -5051,7 +5094,7 @@
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
         <v>128</v>
       </c>
@@ -5062,7 +5105,7 @@
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
         <v>129</v>
       </c>
@@ -5073,7 +5116,7 @@
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
         <v>130</v>
       </c>
@@ -5084,7 +5127,7 @@
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
         <v>131</v>
       </c>
@@ -5095,14 +5138,14 @@
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
         <v>139</v>
       </c>
@@ -5113,7 +5156,7 @@
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
         <v>140</v>
       </c>
@@ -5124,7 +5167,7 @@
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
         <v>141</v>
       </c>
@@ -5135,7 +5178,7 @@
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
         <v>142</v>
       </c>
@@ -5146,7 +5189,7 @@
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
         <v>143</v>
       </c>
@@ -5157,7 +5200,7 @@
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
         <v>144</v>
       </c>
@@ -5168,7 +5211,7 @@
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
         <v>145</v>
       </c>
@@ -5179,14 +5222,14 @@
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
         <v>146</v>
       </c>
@@ -5197,7 +5240,7 @@
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
         <v>147</v>
       </c>
@@ -5208,7 +5251,7 @@
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
         <v>148</v>
       </c>
@@ -5219,7 +5262,7 @@
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
         <v>149</v>
       </c>
@@ -5230,7 +5273,7 @@
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
         <v>150</v>
       </c>
@@ -5241,7 +5284,7 @@
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
         <v>151</v>
       </c>
@@ -5252,7 +5295,7 @@
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
         <v>390</v>
       </c>
@@ -5263,14 +5306,14 @@
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>132</v>
       </c>
@@ -5283,7 +5326,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
         <v>133</v>
       </c>
@@ -5296,7 +5339,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="s">
         <v>134</v>
       </c>
@@ -5309,7 +5352,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="s">
         <v>135</v>
       </c>
@@ -5322,7 +5365,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
         <v>136</v>
       </c>
@@ -5335,7 +5378,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
         <v>137</v>
       </c>
@@ -5348,7 +5391,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
         <v>138</v>
       </c>
@@ -5361,14 +5404,14 @@
         <v>382</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
         <v>152</v>
       </c>
@@ -5379,7 +5422,7 @@
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="s">
         <v>153</v>
       </c>
@@ -5390,7 +5433,7 @@
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="s">
         <v>154</v>
       </c>
@@ -5401,14 +5444,14 @@
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="s">
         <v>167</v>
       </c>
@@ -5419,7 +5462,7 @@
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="s">
         <v>168</v>
       </c>
@@ -5430,7 +5473,7 @@
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
         <v>169</v>
       </c>
@@ -5441,14 +5484,14 @@
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>155</v>
       </c>
@@ -5459,7 +5502,7 @@
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
         <v>156</v>
       </c>
@@ -5470,7 +5513,7 @@
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
         <v>157</v>
       </c>
@@ -5481,14 +5524,14 @@
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
         <v>170</v>
       </c>
@@ -5499,7 +5542,7 @@
       <c r="D237" s="6"/>
       <c r="E237" s="6"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
         <v>171</v>
       </c>
@@ -5510,7 +5553,7 @@
       <c r="D238" s="6"/>
       <c r="E238" s="6"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
         <v>172</v>
       </c>
@@ -5521,14 +5564,14 @@
       <c r="D239" s="6"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="s">
         <v>158</v>
       </c>
@@ -5539,7 +5582,7 @@
       <c r="D241" s="6"/>
       <c r="E241" s="6"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="19" t="s">
         <v>159</v>
       </c>
@@ -5550,14 +5593,14 @@
       <c r="D242" s="6"/>
       <c r="E242" s="6"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
       <c r="E243" s="6"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="s">
         <v>173</v>
       </c>
@@ -5568,7 +5611,7 @@
       <c r="D244" s="6"/>
       <c r="E244" s="6"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="s">
         <v>174</v>
       </c>
@@ -5579,14 +5622,14 @@
       <c r="D245" s="6"/>
       <c r="E245" s="6"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
         <v>160</v>
       </c>
@@ -5597,7 +5640,7 @@
       <c r="D247" s="6"/>
       <c r="E247" s="6"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="s">
         <v>161</v>
       </c>
@@ -5608,7 +5651,7 @@
       <c r="D248" s="6"/>
       <c r="E248" s="6"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="s">
         <v>162</v>
       </c>
@@ -5619,14 +5662,14 @@
       <c r="D249" s="6"/>
       <c r="E249" s="6"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="6"/>
       <c r="D250" s="6"/>
       <c r="E250" s="6"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="s">
         <v>175</v>
       </c>
@@ -5637,7 +5680,7 @@
       <c r="D251" s="6"/>
       <c r="E251" s="6"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="11" t="s">
         <v>176</v>
       </c>
@@ -5648,7 +5691,7 @@
       <c r="D252" s="6"/>
       <c r="E252" s="6"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="s">
         <v>177</v>
       </c>
@@ -5659,14 +5702,14 @@
       <c r="D253" s="6"/>
       <c r="E253" s="6"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="6"/>
       <c r="D254" s="6"/>
       <c r="E254" s="6"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="11" t="s">
         <v>163</v>
       </c>
@@ -5677,7 +5720,7 @@
       <c r="D255" s="6"/>
       <c r="E255" s="6"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="s">
         <v>164</v>
       </c>
@@ -5688,7 +5731,7 @@
       <c r="D256" s="6"/>
       <c r="E256" s="6"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="11" t="s">
         <v>165</v>
       </c>
@@ -5699,14 +5742,14 @@
       <c r="D257" s="6"/>
       <c r="E257" s="6"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="6"/>
       <c r="D258" s="6"/>
       <c r="E258" s="6"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="11" t="s">
         <v>178</v>
       </c>
@@ -5717,7 +5760,7 @@
       <c r="D259" s="6"/>
       <c r="E259" s="6"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="11" t="s">
         <v>179</v>
       </c>
@@ -5728,7 +5771,7 @@
       <c r="D260" s="6"/>
       <c r="E260" s="6"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="11" t="s">
         <v>180</v>
       </c>
@@ -5739,14 +5782,14 @@
       <c r="D261" s="6"/>
       <c r="E261" s="6"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="6"/>
       <c r="D262" s="6"/>
       <c r="E262" s="6"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="s">
         <v>166</v>
       </c>
@@ -5757,14 +5800,14 @@
       <c r="D263" s="6"/>
       <c r="E263" s="6"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="6"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="s">
         <v>181</v>
       </c>
@@ -5775,14 +5818,14 @@
       <c r="D265" s="6"/>
       <c r="E265" s="6"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="11"/>
       <c r="B266" s="11"/>
       <c r="C266" s="6"/>
       <c r="D266" s="6"/>
       <c r="E266" s="6"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="s">
         <v>182</v>
       </c>
@@ -5793,7 +5836,7 @@
       <c r="D267" s="6"/>
       <c r="E267" s="6"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="s">
         <v>183</v>
       </c>
@@ -5804,7 +5847,7 @@
       <c r="D268" s="6"/>
       <c r="E268" s="6"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="11" t="s">
         <v>184</v>
       </c>
@@ -5815,7 +5858,7 @@
       <c r="D269" s="6"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="11" t="s">
         <v>185</v>
       </c>
@@ -5826,14 +5869,14 @@
       <c r="D270" s="6"/>
       <c r="E270" s="6"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="6"/>
       <c r="D271" s="6"/>
       <c r="E271" s="6"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="11" t="s">
         <v>186</v>
       </c>
@@ -5846,7 +5889,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="19" t="s">
         <v>187</v>
       </c>
@@ -5859,7 +5902,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="11" t="s">
         <v>188</v>
       </c>
@@ -5870,14 +5913,14 @@
       <c r="D274" s="6"/>
       <c r="E274" s="6"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="6"/>
       <c r="D275" s="6"/>
       <c r="E275" s="6"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="11" t="s">
         <v>189</v>
       </c>
@@ -5890,7 +5933,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="11" t="s">
         <v>190</v>
       </c>
@@ -5903,7 +5946,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="11" t="s">
         <v>191</v>
       </c>
@@ -5914,14 +5957,14 @@
       <c r="D278" s="6"/>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="6"/>
       <c r="D279" s="6"/>
       <c r="E279" s="6"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="11" t="s">
         <v>192</v>
       </c>
@@ -5932,7 +5975,7 @@
       <c r="D280" s="6"/>
       <c r="E280" s="6"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="11" t="s">
         <v>193</v>
       </c>
@@ -5943,7 +5986,7 @@
       <c r="D281" s="6"/>
       <c r="E281" s="6"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="11" t="s">
         <v>194</v>
       </c>
@@ -5954,7 +5997,7 @@
       <c r="D282" s="6"/>
       <c r="E282" s="6"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="11" t="s">
         <v>195</v>
       </c>
@@ -5965,7 +6008,7 @@
       <c r="D283" s="6"/>
       <c r="E283" s="6"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="11" t="s">
         <v>196</v>
       </c>
@@ -5976,7 +6019,7 @@
       <c r="D284" s="6"/>
       <c r="E284" s="6"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="11" t="s">
         <v>197</v>
       </c>
@@ -5987,7 +6030,7 @@
       <c r="D285" s="6"/>
       <c r="E285" s="6"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="11" t="s">
         <v>198</v>
       </c>
@@ -5998,7 +6041,7 @@
       <c r="D286" s="6"/>
       <c r="E286" s="6"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="11" t="s">
         <v>199</v>
       </c>
@@ -6009,7 +6052,7 @@
       <c r="D287" s="6"/>
       <c r="E287" s="6"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="11" t="s">
         <v>200</v>
       </c>
@@ -6020,7 +6063,7 @@
       <c r="D288" s="6"/>
       <c r="E288" s="6"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="11" t="s">
         <v>201</v>
       </c>
@@ -6031,14 +6074,14 @@
       <c r="D289" s="6"/>
       <c r="E289" s="6"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="6"/>
       <c r="D290" s="6"/>
       <c r="E290" s="6"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="11" t="s">
         <v>202</v>
       </c>
@@ -6051,7 +6094,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="11" t="s">
         <v>203</v>
       </c>
@@ -6064,7 +6107,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="11" t="s">
         <v>204</v>
       </c>
@@ -6077,7 +6120,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="11" t="s">
         <v>205</v>
       </c>
@@ -6090,7 +6133,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="11" t="s">
         <v>426</v>
       </c>
@@ -6103,7 +6146,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="11" t="s">
         <v>206</v>
       </c>
@@ -6116,7 +6159,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="11" t="s">
         <v>207</v>
       </c>
@@ -6129,7 +6172,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="11" t="s">
         <v>208</v>
       </c>
@@ -6142,14 +6185,14 @@
         <v>577</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="6"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="11" t="s">
         <v>209</v>
       </c>
@@ -6162,7 +6205,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="11" t="s">
         <v>210</v>
       </c>
@@ -6175,14 +6218,14 @@
         <v>577</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="6"/>
       <c r="D302" s="6"/>
       <c r="E302" s="6"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="29" t="s">
         <v>211</v>
       </c>
@@ -6195,14 +6238,14 @@
         <v>511</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="6"/>
       <c r="D304" s="6"/>
       <c r="E304" s="6"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="11" t="s">
         <v>212</v>
       </c>
@@ -6215,7 +6258,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="11" t="s">
         <v>213</v>
       </c>
@@ -6228,7 +6271,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="11" t="s">
         <v>214</v>
       </c>
@@ -6241,7 +6284,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="11" t="s">
         <v>215</v>
       </c>
@@ -6254,7 +6297,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="11" t="s">
         <v>216</v>
       </c>
@@ -6267,7 +6310,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="11" t="s">
         <v>217</v>
       </c>
@@ -6280,7 +6323,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="11" t="s">
         <v>218</v>
       </c>
@@ -6293,14 +6336,14 @@
         <v>508</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="6"/>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="11" t="s">
         <v>352</v>
       </c>
@@ -6313,7 +6356,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="314" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A314" s="29" t="s">
         <v>649</v>
       </c>
@@ -6322,7 +6365,7 @@
       <c r="D314" s="28"/>
       <c r="E314" s="28"/>
     </row>
-    <row r="315" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="29" t="s">
         <v>650</v>
       </c>
@@ -6331,7 +6374,7 @@
       <c r="D315" s="28"/>
       <c r="E315" s="28"/>
     </row>
-    <row r="316" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A316" s="29" t="s">
         <v>651</v>
       </c>
@@ -6340,7 +6383,7 @@
       <c r="D316" s="28"/>
       <c r="E316" s="28"/>
     </row>
-    <row r="317" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A317" s="29" t="s">
         <v>652</v>
       </c>
@@ -6349,7 +6392,7 @@
       <c r="D317" s="28"/>
       <c r="E317" s="28"/>
     </row>
-    <row r="318" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A318" s="29" t="s">
         <v>653</v>
       </c>
@@ -6358,7 +6401,7 @@
       <c r="D318" s="28"/>
       <c r="E318" s="28"/>
     </row>
-    <row r="319" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="29" t="s">
         <v>654</v>
       </c>
@@ -6367,7 +6410,7 @@
       <c r="D319" s="28"/>
       <c r="E319" s="28"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="29" t="s">
         <v>354</v>
       </c>
@@ -6382,7 +6425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="29" t="s">
         <v>219</v>
       </c>
@@ -6397,7 +6440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="322" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="29" t="s">
         <v>220</v>
       </c>
@@ -6410,7 +6453,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="11" t="s">
         <v>424</v>
       </c>
@@ -6421,14 +6464,14 @@
       <c r="D323" s="6"/>
       <c r="E323" s="6"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="6"/>
       <c r="D324" s="6"/>
       <c r="E324" s="6"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="11" t="s">
         <v>427</v>
       </c>
@@ -6441,7 +6484,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="11" t="s">
         <v>428</v>
       </c>
@@ -6454,7 +6497,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="11" t="s">
         <v>429</v>
       </c>
@@ -6467,7 +6510,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="11" t="s">
         <v>430</v>
       </c>
@@ -6480,7 +6523,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="11" t="s">
         <v>431</v>
       </c>
@@ -6493,7 +6536,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="11" t="s">
         <v>432</v>
       </c>
@@ -6506,7 +6549,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="11" t="s">
         <v>433</v>
       </c>
@@ -6519,7 +6562,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="11" t="s">
         <v>434</v>
       </c>
@@ -6532,7 +6575,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="11" t="s">
         <v>435</v>
       </c>
@@ -6545,7 +6588,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="11" t="s">
         <v>436</v>
       </c>
@@ -6558,7 +6601,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="11" t="s">
         <v>437</v>
       </c>
@@ -6571,7 +6614,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="11" t="s">
         <v>438</v>
       </c>
@@ -6584,7 +6627,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="11" t="s">
         <v>439</v>
       </c>
@@ -6597,7 +6640,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="11" t="s">
         <v>440</v>
       </c>
@@ -6610,14 +6653,14 @@
         <v>454</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="6"/>
       <c r="D339" s="6"/>
       <c r="E339" s="6"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="11" t="s">
         <v>441</v>
       </c>
@@ -6628,7 +6671,7 @@
       <c r="D340" s="6"/>
       <c r="E340" s="6"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="11" t="s">
         <v>442</v>
       </c>
@@ -6639,7 +6682,7 @@
       <c r="D341" s="6"/>
       <c r="E341" s="6"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="11" t="s">
         <v>443</v>
       </c>
@@ -6650,7 +6693,7 @@
       <c r="D342" s="6"/>
       <c r="E342" s="6"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="11" t="s">
         <v>444</v>
       </c>
@@ -6663,7 +6706,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="11" t="s">
         <v>445</v>
       </c>
@@ -6674,14 +6717,14 @@
       <c r="D344" s="6"/>
       <c r="E344" s="6"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="6"/>
       <c r="D345" s="6"/>
       <c r="E345" s="6"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="11" t="s">
         <v>446</v>
       </c>
@@ -6692,7 +6735,7 @@
       <c r="D346" s="6"/>
       <c r="E346" s="6"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="11" t="s">
         <v>447</v>
       </c>
@@ -6703,14 +6746,14 @@
       <c r="D347" s="6"/>
       <c r="E347" s="6"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="6"/>
       <c r="D348" s="6"/>
       <c r="E348" s="6"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="11" t="s">
         <v>448</v>
       </c>
@@ -6721,7 +6764,7 @@
       <c r="D349" s="6"/>
       <c r="E349" s="6"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="11" t="s">
         <v>449</v>
       </c>
@@ -6734,7 +6777,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="11" t="s">
         <v>450</v>
       </c>
@@ -6745,7 +6788,7 @@
       <c r="D351" s="6"/>
       <c r="E351" s="6"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="11" t="s">
         <v>451</v>
       </c>
@@ -6758,14 +6801,14 @@
         <v>457</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="6"/>
       <c r="D353" s="6"/>
       <c r="E353" s="6"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="11" t="s">
         <v>221</v>
       </c>
@@ -6778,7 +6821,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="11" t="s">
         <v>570</v>
       </c>
@@ -6789,7 +6832,7 @@
       <c r="D355" s="6"/>
       <c r="E355" s="6"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="11" t="s">
         <v>573</v>
       </c>
@@ -6802,14 +6845,14 @@
         <v>575</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
       <c r="E357" s="6"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="11" t="s">
         <v>222</v>
       </c>
@@ -6820,7 +6863,7 @@
       <c r="D358" s="6"/>
       <c r="E358" s="6"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="11" t="s">
         <v>348</v>
       </c>
@@ -6831,7 +6874,7 @@
       <c r="D359" s="6"/>
       <c r="E359" s="6"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="11" t="s">
         <v>344</v>
       </c>
@@ -6842,7 +6885,7 @@
       <c r="D360" s="6"/>
       <c r="E360" s="6"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="11" t="s">
         <v>345</v>
       </c>
@@ -6855,7 +6898,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="11" t="s">
         <v>223</v>
       </c>
@@ -6868,14 +6911,14 @@
         <v>622</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="6"/>
       <c r="D363" s="6"/>
       <c r="E363" s="6"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="11" t="s">
         <v>465</v>
       </c>
@@ -6888,7 +6931,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="11" t="s">
         <v>463</v>
       </c>
@@ -6901,14 +6944,14 @@
         <v>467</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="11"/>
       <c r="B366" s="20"/>
       <c r="C366" s="6"/>
       <c r="D366" s="6"/>
       <c r="E366" s="6"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="19" t="s">
         <v>458</v>
       </c>
@@ -6921,14 +6964,14 @@
         <v>601</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="6"/>
       <c r="D368" s="6"/>
       <c r="E368" s="6"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="11" t="s">
         <v>459</v>
       </c>
@@ -6941,14 +6984,14 @@
         <v>600</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="6"/>
       <c r="D370" s="6"/>
       <c r="E370" s="6"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="11" t="s">
         <v>460</v>
       </c>
@@ -6961,7 +7004,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="32" t="s">
         <v>461</v>
       </c>
@@ -6974,14 +7017,14 @@
         <v>615</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="6"/>
       <c r="D373" s="6"/>
       <c r="E373" s="6"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="11" t="s">
         <v>462</v>
       </c>
@@ -6994,7 +7037,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="11" t="s">
         <v>464</v>
       </c>
@@ -7007,14 +7050,14 @@
         <v>453</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="10"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="13"/>
     </row>
   </sheetData>
@@ -7027,7 +7070,7 @@
     <mergeCell ref="A106:E106"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E40" r:id="rId1"/>
+    <hyperlink ref="E40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -7036,22 +7079,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="39.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
+    <col min="2" max="2" width="39.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7062,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>-9</v>
       </c>
@@ -7073,7 +7116,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>-13</v>
       </c>
@@ -7084,7 +7127,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>-15</v>
       </c>
@@ -7095,7 +7138,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>578</v>
       </c>
@@ -7106,19 +7149,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>475</v>
       </c>
@@ -7129,7 +7172,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -7141,7 +7184,7 @@
         <v>correlat</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -7153,7 +7196,7 @@
         <v>nper</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -7165,7 +7208,7 @@
         <v>filtloc</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -7177,7 +7220,7 @@
         <v>pesoan</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -7189,7 +7232,7 @@
         <v>mes</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -7201,7 +7244,7 @@
         <v>anio</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -7213,7 +7256,7 @@
         <v>dpto</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -7225,7 +7268,7 @@
         <v>ccz</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -7237,7 +7280,7 @@
         <v>area</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>88</v>
       </c>
@@ -7249,7 +7292,7 @@
         <v>pe2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -7261,7 +7304,7 @@
         <v>pe3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>90</v>
       </c>
@@ -7273,7 +7316,7 @@
         <v>pe4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -7285,7 +7328,7 @@
         <v>pe5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -7297,7 +7340,7 @@
         <v>pe6a</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -7309,7 +7352,7 @@
         <v>pe6b</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -7321,7 +7364,7 @@
         <v>pe11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -7333,7 +7376,7 @@
         <v>pe12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>224</v>
       </c>
@@ -7345,7 +7388,7 @@
         <v>pe13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>225</v>
       </c>
@@ -7357,7 +7400,7 @@
         <v>nivel</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -7369,7 +7412,7 @@
         <v>edu</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -7381,7 +7424,7 @@
         <v>finalizo</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -7393,7 +7436,7 @@
         <v>pobp</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>226</v>
       </c>
@@ -7405,7 +7448,7 @@
         <v>pf41</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -7417,7 +7460,7 @@
         <v>cat2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>100</v>
       </c>
@@ -7429,7 +7472,7 @@
         <v>pf081</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -7441,7 +7484,7 @@
         <v>pf082</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -7453,7 +7496,7 @@
         <v>pf40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7465,7 +7508,7 @@
         <v>rama</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -7477,7 +7520,7 @@
         <v>pf39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -7489,7 +7532,7 @@
         <v>tipo_ocup</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -7501,7 +7544,7 @@
         <v>pf07</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -7513,7 +7556,7 @@
         <v>pf051</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -7525,7 +7568,7 @@
         <v>pf052</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -7537,7 +7580,7 @@
         <v>pf053</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -7549,7 +7592,7 @@
         <v>pf06</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -7561,7 +7604,7 @@
         <v>horas</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -7573,7 +7616,7 @@
         <v>horas_1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>229</v>
       </c>
@@ -7585,7 +7628,7 @@
         <v>pf04</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>111</v>
       </c>
@@ -7597,7 +7640,7 @@
         <v>pf21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -7609,7 +7652,7 @@
         <v>pf22</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -7621,7 +7664,7 @@
         <v>pf26</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -7633,7 +7676,7 @@
         <v>pf34</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>113</v>
       </c>
@@ -7645,7 +7688,7 @@
         <v>reg_disse</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -7657,7 +7700,7 @@
         <v>register</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>115</v>
       </c>
@@ -7669,7 +7712,7 @@
         <v>register2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -7681,7 +7724,7 @@
         <v>subocupado</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -7693,7 +7736,7 @@
         <v>pg11p</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>119</v>
       </c>
@@ -7705,7 +7748,7 @@
         <v>pg12p</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>120</v>
       </c>
@@ -7717,7 +7760,7 @@
         <v>pg13p</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -7729,7 +7772,7 @@
         <v>pg14p</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>122</v>
       </c>
@@ -7741,7 +7784,7 @@
         <v>pg15p</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -7753,7 +7796,7 @@
         <v>pg16p</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -7765,7 +7808,7 @@
         <v>pg17p</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -7777,7 +7820,7 @@
         <v>pg11o</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>126</v>
       </c>
@@ -7789,7 +7832,7 @@
         <v>pg12o</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -7801,7 +7844,7 @@
         <v>pg13o</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -7813,7 +7856,7 @@
         <v>pg14o</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -7825,7 +7868,7 @@
         <v>pg15o</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>130</v>
       </c>
@@ -7837,7 +7880,7 @@
         <v>pg16o</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -7849,7 +7892,7 @@
         <v>pg17o</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>139</v>
       </c>
@@ -7861,7 +7904,7 @@
         <v>pg21p</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -7873,7 +7916,7 @@
         <v>pg22p</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -7885,7 +7928,7 @@
         <v>pg23p</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -7897,7 +7940,7 @@
         <v>pg24p</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -7909,7 +7952,7 @@
         <v>pg25p</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -7921,7 +7964,7 @@
         <v>pg26p</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -7933,7 +7976,7 @@
         <v>pg27p</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -7945,7 +7988,7 @@
         <v>pg21o</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>147</v>
       </c>
@@ -7957,7 +8000,7 @@
         <v>pg22o</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -7969,7 +8012,7 @@
         <v>pg23o</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -7981,7 +8024,7 @@
         <v>pg24o</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>150</v>
       </c>
@@ -7993,7 +8036,7 @@
         <v>pg25o</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>151</v>
       </c>
@@ -8005,7 +8048,7 @@
         <v>pg26o</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>390</v>
       </c>
@@ -8017,7 +8060,7 @@
         <v>pg27o</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -8029,7 +8072,7 @@
         <v>pg11t</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -8041,7 +8084,7 @@
         <v>pg12t</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -8053,7 +8096,7 @@
         <v>pg13t</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -8065,7 +8108,7 @@
         <v>pg14t</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>136</v>
       </c>
@@ -8077,7 +8120,7 @@
         <v>pg15t</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>137</v>
       </c>
@@ -8089,7 +8132,7 @@
         <v>pg16t</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>138</v>
       </c>
@@ -8101,7 +8144,7 @@
         <v>pg17t</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>152</v>
       </c>
@@ -8113,7 +8156,7 @@
         <v>pg31p</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -8125,7 +8168,7 @@
         <v>pg32p</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -8137,7 +8180,7 @@
         <v>pg33p</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -8149,7 +8192,7 @@
         <v>pg31o</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>168</v>
       </c>
@@ -8161,7 +8204,7 @@
         <v>pg32o</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>169</v>
       </c>
@@ -8173,7 +8216,7 @@
         <v>pg33o</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -8185,7 +8228,7 @@
         <v>pg41p</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -8197,7 +8240,7 @@
         <v>pg42p</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>157</v>
       </c>
@@ -8209,7 +8252,7 @@
         <v>pg43p</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>170</v>
       </c>
@@ -8221,7 +8264,7 @@
         <v>pg41o</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -8233,7 +8276,7 @@
         <v>pg42o</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -8245,7 +8288,7 @@
         <v>pg43o</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>158</v>
       </c>
@@ -8257,7 +8300,7 @@
         <v>pg51p</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>159</v>
       </c>
@@ -8269,7 +8312,7 @@
         <v>pg52p</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>173</v>
       </c>
@@ -8281,7 +8324,7 @@
         <v>pg51o</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>174</v>
       </c>
@@ -8293,7 +8336,7 @@
         <v>pg52o</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>160</v>
       </c>
@@ -8305,7 +8348,7 @@
         <v>pg71p</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>161</v>
       </c>
@@ -8317,7 +8360,7 @@
         <v>pg72p</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>162</v>
       </c>
@@ -8329,7 +8372,7 @@
         <v>pg73p</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>175</v>
       </c>
@@ -8341,7 +8384,7 @@
         <v>pg71o</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -8353,7 +8396,7 @@
         <v>pg72o</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>177</v>
       </c>
@@ -8365,7 +8408,7 @@
         <v>pg73o</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>163</v>
       </c>
@@ -8377,7 +8420,7 @@
         <v>pg60p</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -8389,7 +8432,7 @@
         <v>pg60p_cpcl</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -8401,7 +8444,7 @@
         <v>pg60p_cpsl</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>178</v>
       </c>
@@ -8413,7 +8456,7 @@
         <v>pg60o</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>179</v>
       </c>
@@ -8425,7 +8468,7 @@
         <v>pg60o_cpcl</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>180</v>
       </c>
@@ -8437,7 +8480,7 @@
         <v>pg60o_cpsl</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -8449,7 +8492,7 @@
         <v>pg80p</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>181</v>
       </c>
@@ -8461,7 +8504,7 @@
         <v>pg80o</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>182</v>
       </c>
@@ -8473,7 +8516,7 @@
         <v>pg121</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>183</v>
       </c>
@@ -8485,7 +8528,7 @@
         <v>pg122</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>184</v>
       </c>
@@ -8497,7 +8540,7 @@
         <v>pg131</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>185</v>
       </c>
@@ -8509,7 +8552,7 @@
         <v>pg132</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>186</v>
       </c>
@@ -8521,7 +8564,7 @@
         <v>otras_utilidades</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>187</v>
       </c>
@@ -8533,7 +8576,7 @@
         <v>ot_utilidades</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>188</v>
       </c>
@@ -8545,7 +8588,7 @@
         <v>otras_capital</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>189</v>
       </c>
@@ -8557,7 +8600,7 @@
         <v>otros_lab</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>190</v>
       </c>
@@ -8569,7 +8612,7 @@
         <v>otros_benef</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>191</v>
       </c>
@@ -8581,7 +8624,7 @@
         <v>pag_at</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -8593,7 +8636,7 @@
         <v>pg91</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>193</v>
       </c>
@@ -8605,7 +8648,7 @@
         <v>pg92</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>194</v>
       </c>
@@ -8617,7 +8660,7 @@
         <v>pg911</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>195</v>
       </c>
@@ -8629,7 +8672,7 @@
         <v>pg912</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>196</v>
       </c>
@@ -8641,7 +8684,7 @@
         <v>pg921</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>197</v>
       </c>
@@ -8653,7 +8696,7 @@
         <v>pg922</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>198</v>
       </c>
@@ -8665,7 +8708,7 @@
         <v>pg101</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>199</v>
       </c>
@@ -8677,7 +8720,7 @@
         <v>pg102</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>200</v>
       </c>
@@ -8689,7 +8732,7 @@
         <v>pg111</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>201</v>
       </c>
@@ -8701,7 +8744,7 @@
         <v>pg112</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>202</v>
       </c>
@@ -8713,7 +8756,7 @@
         <v>pa11</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -8725,7 +8768,7 @@
         <v>pa12</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>204</v>
       </c>
@@ -8737,7 +8780,7 @@
         <v>pa13</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>205</v>
       </c>
@@ -8749,7 +8792,7 @@
         <v>pa21</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>426</v>
       </c>
@@ -8761,7 +8804,7 @@
         <v>pa22</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>206</v>
       </c>
@@ -8773,7 +8816,7 @@
         <v>pa31</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>207</v>
       </c>
@@ -8785,7 +8828,7 @@
         <v>pa32</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>208</v>
       </c>
@@ -8797,7 +8840,7 @@
         <v>pa33</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -8809,7 +8852,7 @@
         <v>pg191</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>210</v>
       </c>
@@ -8821,7 +8864,7 @@
         <v>pg192</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>211</v>
       </c>
@@ -8833,7 +8876,7 @@
         <v>ing_ciud</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>212</v>
       </c>
@@ -8845,7 +8888,7 @@
         <v>ytdop</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>213</v>
       </c>
@@ -8857,7 +8900,7 @@
         <v>ytdos</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>214</v>
       </c>
@@ -8869,7 +8912,7 @@
         <v>ytinde</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>215</v>
       </c>
@@ -8881,7 +8924,7 @@
         <v>ytransf</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>216</v>
       </c>
@@ -8893,7 +8936,7 @@
         <v>pt1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>217</v>
       </c>
@@ -8905,7 +8948,7 @@
         <v>pt2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>218</v>
       </c>
@@ -8917,7 +8960,7 @@
         <v>pt4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>352</v>
       </c>
@@ -8929,7 +8972,7 @@
         <v>afam</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>354</v>
       </c>
@@ -8941,7 +8984,7 @@
         <v>yciudada</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>219</v>
       </c>
@@ -8953,7 +8996,7 @@
         <v>yalimpan</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>220</v>
       </c>
@@ -8965,7 +9008,7 @@
         <v>yhog</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>424</v>
       </c>
@@ -8977,7 +9020,7 @@
         <v>pg14</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>427</v>
       </c>
@@ -8989,7 +9032,7 @@
         <v>as_privados</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>428</v>
       </c>
@@ -9001,7 +9044,7 @@
         <v>as_publicos</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>429</v>
       </c>
@@ -9013,7 +9056,7 @@
         <v>as_otros</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>430</v>
       </c>
@@ -9025,7 +9068,7 @@
         <v>asalariados</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>431</v>
       </c>
@@ -9037,7 +9080,7 @@
         <v>as_agropec</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>432</v>
       </c>
@@ -9049,7 +9092,7 @@
         <v>patrones</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>433</v>
       </c>
@@ -9061,7 +9104,7 @@
         <v>pat_agropec</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>434</v>
       </c>
@@ -9073,7 +9116,7 @@
         <v>cpropiasl</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>435</v>
       </c>
@@ -9085,7 +9128,7 @@
         <v>cpropiacl</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>436</v>
       </c>
@@ -9097,7 +9140,7 @@
         <v>cp_agropec</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>437</v>
       </c>
@@ -9109,7 +9152,7 @@
         <v>cooperat</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>438</v>
       </c>
@@ -9121,7 +9164,7 @@
         <v>ot_agropec</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>439</v>
       </c>
@@ -9133,7 +9176,7 @@
         <v>principal</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>440</v>
       </c>
@@ -9145,7 +9188,7 @@
         <v>ing_lab</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>441</v>
       </c>
@@ -9157,7 +9200,7 @@
         <v>utilidades</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>442</v>
       </c>
@@ -9169,7 +9212,7 @@
         <v>alq</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>443</v>
       </c>
@@ -9181,7 +9224,7 @@
         <v>intereses</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>444</v>
       </c>
@@ -9193,7 +9236,7 @@
         <v>ut_agropec</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>445</v>
       </c>
@@ -9205,7 +9248,7 @@
         <v>ing_cap</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>446</v>
       </c>
@@ -9217,7 +9260,7 @@
         <v>jub_pen</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>447</v>
       </c>
@@ -9229,7 +9272,7 @@
         <v>jub_pene</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>448</v>
       </c>
@@ -9241,7 +9284,7 @@
         <v>tarjeta</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>449</v>
       </c>
@@ -9253,7 +9296,7 @@
         <v>bs_sociales</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>450</v>
       </c>
@@ -9265,7 +9308,7 @@
         <v>transf_hog</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>451</v>
       </c>
@@ -9277,7 +9320,7 @@
         <v>beneficios</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>221</v>
       </c>
@@ -9289,7 +9332,7 @@
         <v>ipc</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>570</v>
       </c>
@@ -9300,7 +9343,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>573</v>
       </c>
@@ -9311,7 +9354,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>222</v>
       </c>
@@ -9323,7 +9366,7 @@
         <v>cuotmilit</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>348</v>
       </c>
@@ -9335,7 +9378,7 @@
         <v>cuotabps</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>344</v>
       </c>
@@ -9347,7 +9390,7 @@
         <v>disse_p</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>345</v>
       </c>
@@ -9359,7 +9402,7 @@
         <v>disse_o</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>223</v>
       </c>
@@ -9371,7 +9414,7 @@
         <v>disse</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>465</v>
       </c>
@@ -9383,7 +9426,7 @@
         <v>ht11</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>463</v>
       </c>
@@ -9395,7 +9438,7 @@
         <v>ht11d</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>458</v>
       </c>
@@ -9407,7 +9450,7 @@
         <v>ht11_iecon</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>459</v>
       </c>
@@ -9419,7 +9462,7 @@
         <v>ht11_sss</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>460</v>
       </c>
@@ -9431,7 +9474,7 @@
         <v>salud</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>461</v>
       </c>
@@ -9443,7 +9486,7 @@
         <v>ht11_css</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>462</v>
       </c>
@@ -9455,7 +9498,7 @@
         <v>percap_iecon</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>464</v>
       </c>
@@ -9473,30 +9516,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="G189" sqref="G189:G196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="23" customWidth="1"/>
     <col min="7" max="7" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>524</v>
       </c>
@@ -9517,7 +9560,7 @@
         <v>lab  var bc_correlat "Identificador del hogar"</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -9538,7 +9581,7 @@
         <v>lab  var bc_nper "Identificador de la persona"</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>524</v>
       </c>
@@ -9559,7 +9602,7 @@
         <v>lab  var bc_filtloc "Identificador del tipo de localidad"</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>524</v>
       </c>
@@ -9580,7 +9623,7 @@
         <v>lab  var bc_pesoan "Expansor del anio"</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>524</v>
       </c>
@@ -9601,7 +9644,7 @@
         <v>lab  var bc_mes "Mes en que se realizo la entrevista"</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>524</v>
       </c>
@@ -9622,7 +9665,7 @@
         <v>lab  var bc_anio "Anio en que se realizo la entrevista"</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>524</v>
       </c>
@@ -9643,7 +9686,7 @@
         <v>lab  var bc_dpto "Departamento de residencia"</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>524</v>
       </c>
@@ -9664,7 +9707,7 @@
         <v>lab  var bc_ccz "Centros Comunales Zonales de Montevideo"</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -9685,7 +9728,7 @@
         <v>lab  var bc_area "Area de residencia"</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>524</v>
       </c>
@@ -9706,7 +9749,7 @@
         <v>lab  var bc_pe2 "Sexo "</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>524</v>
       </c>
@@ -9727,7 +9770,7 @@
         <v>lab  var bc_pe3 "Edad"</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>524</v>
       </c>
@@ -9748,7 +9791,7 @@
         <v>lab  var bc_pe4 "Relacion de parentesco"</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>524</v>
       </c>
@@ -9769,7 +9812,7 @@
         <v>lab  var bc_pe5 "Estado civil"</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>524</v>
       </c>
@@ -9790,7 +9833,7 @@
         <v>lab  var bc_pe6a "Derecho de atencion medica (a)"</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>524</v>
       </c>
@@ -9811,7 +9854,7 @@
         <v>lab  var bc_pe6b "Derecho de atencion medica (b)"</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>524</v>
       </c>
@@ -9832,7 +9875,7 @@
         <v>lab  var bc_pe11 "Asistencia escolar actual"</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>524</v>
       </c>
@@ -9853,7 +9896,7 @@
         <v>lab  var bc_pe12 "Asistio a centro educativo"</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>524</v>
       </c>
@@ -9874,7 +9917,7 @@
         <v>lab  var bc_pe13 "Asistencia publico o privado"</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>524</v>
       </c>
@@ -9895,7 +9938,7 @@
         <v>lab  var bc_nivel "Nivel educativo maximo alcanzado"</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>524</v>
       </c>
@@ -9916,7 +9959,7 @@
         <v>lab  var bc_edu "Anios de educacion aprobados"</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>524</v>
       </c>
@@ -9937,7 +9980,7 @@
         <v>lab  var bc_finalizo "Finaliza maximo nivel "</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>524</v>
       </c>
@@ -9958,7 +10001,7 @@
         <v>lab  var bc_pobp "Condicion de actividad"</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>524</v>
       </c>
@@ -9979,7 +10022,7 @@
         <v>lab  var bc_pf41 "Categoria de ocupacion (a)"</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>524</v>
       </c>
@@ -10000,7 +10043,7 @@
         <v>lab  var bc_cat2 "Categoria de ocupacion (b)"</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>524</v>
       </c>
@@ -10021,7 +10064,7 @@
         <v>lab  var bc_pf081 "Tamanio del establecimiento"</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>524</v>
       </c>
@@ -10042,7 +10085,7 @@
         <v>lab  var bc_pf082 "Tamanio del establecimiento por tramos"</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>524</v>
       </c>
@@ -10063,7 +10106,7 @@
         <v>lab  var bc_pf40 "Rama del establecimiento"</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>524</v>
       </c>
@@ -10084,7 +10127,7 @@
         <v>lab  var bc_rama "Rama de actividad a un digito"</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>524</v>
       </c>
@@ -10105,7 +10148,7 @@
         <v>lab  var bc_pf39 "Tipo de ocupacion"</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>524</v>
       </c>
@@ -10126,7 +10169,7 @@
         <v>lab  var bc_tipo_ocup "Tipo de ocupacion principal"</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>524</v>
       </c>
@@ -10147,7 +10190,7 @@
         <v>lab  var bc_pf07 "Cantidad de empleos"</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>524</v>
       </c>
@@ -10168,7 +10211,7 @@
         <v>lab  var bc_pf051 "Horas trabajadas en ocupacion principal la semana pasada"</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>524</v>
       </c>
@@ -10189,7 +10232,7 @@
         <v>lab  var bc_pf052 "Horas trabajadas en otras ocupaciones la semana pasada"</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>524</v>
       </c>
@@ -10210,7 +10253,7 @@
         <v>lab  var bc_pf053 "Horas totales trabajadas la semana pasada"</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>524</v>
       </c>
@@ -10231,7 +10274,7 @@
         <v>lab  var bc_pf06 "Horas totales trabajadas la semana pasada"</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>524</v>
       </c>
@@ -10252,7 +10295,7 @@
         <v>lab  var bc_horas "Horas trabajadas habitualmente en la semana "</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>524</v>
       </c>
@@ -10273,7 +10316,7 @@
         <v>lab  var bc_horas_1 "Horas trabajadas en ocupacion principal"</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>524</v>
       </c>
@@ -10294,7 +10337,7 @@
         <v>lab  var bc_pf04 "Motivo por el que no trabaja"</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>524</v>
       </c>
@@ -10315,7 +10358,7 @@
         <v>lab  var bc_pf21 "Busco trabajo la semana pasada"</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>524</v>
       </c>
@@ -10336,7 +10379,7 @@
         <v>lab  var bc_pf22 "Causa por las que no busco trabajo"</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>524</v>
       </c>
@@ -10357,7 +10400,7 @@
         <v>lab  var bc_pf26 "Semanas de busqueda de trabajo"</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>524</v>
       </c>
@@ -10378,7 +10421,7 @@
         <v>lab  var bc_pf34 "Causas por las que dejo el ultimo trabajo"</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>524</v>
       </c>
@@ -10399,7 +10442,7 @@
         <v>lab  var bc_reg_disse "Cobertura medica por disse o fonasa"</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>524</v>
       </c>
@@ -10420,7 +10463,7 @@
         <v>lab  var bc_register "Cobertura de seguridad social en ocupacion principal"</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>524</v>
       </c>
@@ -10441,7 +10484,7 @@
         <v>lab  var bc_register2 "Cobertura de seguridad social en trabajo "</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>524</v>
       </c>
@@ -10462,7 +10505,7 @@
         <v>lab  var bc_subocupado "Trabaja menos horas de las que desearia"</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>524</v>
       </c>
@@ -10483,7 +10526,7 @@
         <v>lab  var bc_pg11p "Sueldos privados principal"</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>524</v>
       </c>
@@ -10504,7 +10547,7 @@
         <v>lab  var bc_pg12p "Comisiones privados principal"</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>524</v>
       </c>
@@ -10525,7 +10568,7 @@
         <v>lab  var bc_pg13p "Beneficios Sociales privados principal"</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>524</v>
       </c>
@@ -10546,7 +10589,7 @@
         <v>lab  var bc_pg14p "Aguinaldo privados principal"</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>524</v>
       </c>
@@ -10567,7 +10610,7 @@
         <v>lab  var bc_pg15p "Salario vacacional privados principal"</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>524</v>
       </c>
@@ -10588,7 +10631,7 @@
         <v>lab  var bc_pg16p "Propina/gratificaciones privados principal"</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>524</v>
       </c>
@@ -10609,7 +10652,7 @@
         <v>lab  var bc_pg17p "En especie privados principal"</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>524</v>
       </c>
@@ -10630,7 +10673,7 @@
         <v>lab  var bc_pg11o "Sueldos privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>524</v>
       </c>
@@ -10651,7 +10694,7 @@
         <v>lab  var bc_pg12o "Comisiones privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>524</v>
       </c>
@@ -10672,7 +10715,7 @@
         <v>lab  var bc_pg13o "Beneficios Sociales privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>524</v>
       </c>
@@ -10693,7 +10736,7 @@
         <v>lab  var bc_pg14o "Aguinaldo privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>524</v>
       </c>
@@ -10714,7 +10757,7 @@
         <v>lab  var bc_pg15o "Salario vacacional privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>524</v>
       </c>
@@ -10735,7 +10778,7 @@
         <v>lab  var bc_pg16o "Propina/gratificaciones privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>524</v>
       </c>
@@ -10756,7 +10799,7 @@
         <v>lab  var bc_pg17o "En especie privados otras ocupaciones"</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>524</v>
       </c>
@@ -10777,7 +10820,7 @@
         <v>lab  var bc_pg21p "Sueldos público principal"</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>524</v>
       </c>
@@ -10798,7 +10841,7 @@
         <v>lab  var bc_pg22p "Comisiones público principal"</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>524</v>
       </c>
@@ -10819,7 +10862,7 @@
         <v>lab  var bc_pg23p "Beneficios Sociales público principal"</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>524</v>
       </c>
@@ -10840,7 +10883,7 @@
         <v>lab  var bc_pg24p "Aguinaldo público principal"</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>524</v>
       </c>
@@ -10861,7 +10904,7 @@
         <v>lab  var bc_pg25p "Salario vacacional público principal"</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>524</v>
       </c>
@@ -10882,7 +10925,7 @@
         <v>lab  var bc_pg26p "Propina/gratificaciones público principal"</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>524</v>
       </c>
@@ -10903,7 +10946,7 @@
         <v>lab  var bc_pg27p "En especie público principal"</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>524</v>
       </c>
@@ -10924,7 +10967,7 @@
         <v>lab  var bc_pg21o "Sueldos público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>524</v>
       </c>
@@ -10945,7 +10988,7 @@
         <v>lab  var bc_pg22o "Comisiones público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>524</v>
       </c>
@@ -10966,7 +11009,7 @@
         <v>lab  var bc_pg23o "Beneficios Sociales público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>524</v>
       </c>
@@ -10987,7 +11030,7 @@
         <v>lab  var bc_pg24o "Aguinaldo público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>524</v>
       </c>
@@ -11008,7 +11051,7 @@
         <v>lab  var bc_pg25o "Salario vacacional público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>524</v>
       </c>
@@ -11029,7 +11072,7 @@
         <v>lab  var bc_pg26o "Propina/gratificaciones público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>524</v>
       </c>
@@ -11050,7 +11093,7 @@
         <v>lab  var bc_pg27o "En especie público otras ocupaciones"</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>524</v>
       </c>
@@ -11071,7 +11114,7 @@
         <v>lab  var bc_pg11t "Sueldos otras ocupaciones"</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>524</v>
       </c>
@@ -11092,7 +11135,7 @@
         <v>lab  var bc_pg12t "Comisiones otras ocupaciones"</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>524</v>
       </c>
@@ -11113,7 +11156,7 @@
         <v>lab  var bc_pg13t "Beneficios Sociales otras ocupaciones"</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>524</v>
       </c>
@@ -11134,7 +11177,7 @@
         <v>lab  var bc_pg14t "Aguinaldo otras ocupaciones"</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>524</v>
       </c>
@@ -11155,7 +11198,7 @@
         <v>lab  var bc_pg15t "Salario vacacional otras ocupaciones"</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>524</v>
       </c>
@@ -11176,7 +11219,7 @@
         <v>lab  var bc_pg16t "Propina/gratificaciones otras ocupaciones"</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>524</v>
       </c>
@@ -11197,7 +11240,7 @@
         <v>lab  var bc_pg17t "En especies otras ocupaciones"</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>524</v>
       </c>
@@ -11218,7 +11261,7 @@
         <v>lab  var bc_pg31p "Dinero cp sl principal"</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>524</v>
       </c>
@@ -11239,7 +11282,7 @@
         <v>lab  var bc_pg32p "Asignaciones cp sl principal"</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>524</v>
       </c>
@@ -11260,7 +11303,7 @@
         <v>lab  var bc_pg33p "Especie cp sl principal"</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>524</v>
       </c>
@@ -11281,7 +11324,7 @@
         <v>lab  var bc_pg31o "Dinero cp sl otras ocupaciones"</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>524</v>
       </c>
@@ -11302,7 +11345,7 @@
         <v>lab  var bc_pg32o "Asignaciones cp sl otras ocupaciones"</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -11323,7 +11366,7 @@
         <v>lab  var bc_pg33o "Especie cp sl otras ocupaciones"</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>524</v>
       </c>
@@ -11344,7 +11387,7 @@
         <v>lab  var bc_pg41p "Dinero cp cl principal"</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>524</v>
       </c>
@@ -11365,7 +11408,7 @@
         <v>lab  var bc_pg42p "Asignaciones cp cl principal"</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>524</v>
       </c>
@@ -11386,7 +11429,7 @@
         <v>lab  var bc_pg43p "Especie cp cl principal"</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>524</v>
       </c>
@@ -11407,7 +11450,7 @@
         <v>lab  var bc_pg41o "Dinero cp cl otras ocupaciones"</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>524</v>
       </c>
@@ -11428,7 +11471,7 @@
         <v>lab  var bc_pg42o "Asignaciones cp cl otras ocupaciones"</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>524</v>
       </c>
@@ -11449,7 +11492,7 @@
         <v>lab  var bc_pg43o "Especie cp cl otras ocupaciones"</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>524</v>
       </c>
@@ -11470,7 +11513,7 @@
         <v>lab  var bc_pg51p "Dinero patrón principal"</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>524</v>
       </c>
@@ -11491,7 +11534,7 @@
         <v>lab  var bc_pg52p "Especie patrón principal"</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>524</v>
       </c>
@@ -11512,7 +11555,7 @@
         <v>lab  var bc_pg51o "Dinero patrón otras ocupaciones"</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>524</v>
       </c>
@@ -11533,7 +11576,7 @@
         <v>lab  var bc_pg52o "Especie patrón otras ocupaciones"</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>524</v>
       </c>
@@ -11554,7 +11597,7 @@
         <v>lab  var bc_pg71p "Dinero coop principal"</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>524</v>
       </c>
@@ -11575,7 +11618,7 @@
         <v>lab  var bc_pg72p "Asignaciones coop principal"</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>524</v>
       </c>
@@ -11596,7 +11639,7 @@
         <v>lab  var bc_pg73p "Especie coop principal"</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>524</v>
       </c>
@@ -11617,7 +11660,7 @@
         <v>lab  var bc_pg71o "Dinero coop otras ocupaciones"</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>524</v>
       </c>
@@ -11638,7 +11681,7 @@
         <v>lab  var bc_pg72o "Asignaciones coop otras ocupaciones"</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>524</v>
       </c>
@@ -11659,7 +11702,7 @@
         <v>lab  var bc_pg73o "Especie coop otras ocupaciones"</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>524</v>
       </c>
@@ -11680,7 +11723,7 @@
         <v>lab  var bc_pg60p "Utilidades totales patrones principal "</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>524</v>
       </c>
@@ -11701,7 +11744,7 @@
         <v>lab  var bc_pg60p_cpcl "Utilidades totales cp cl principal "</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>524</v>
       </c>
@@ -11722,7 +11765,7 @@
         <v>lab  var bc_pg60p_cpsl "Utilidades totales cp sl principal "</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>524</v>
       </c>
@@ -11743,7 +11786,7 @@
         <v>lab  var bc_pg60o "Utilidades totales patrones otras ocupaciones "</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>524</v>
       </c>
@@ -11764,7 +11807,7 @@
         <v>lab  var bc_pg60o_cpcl "Utilidades totales cp cl otras ocupaciones "</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>524</v>
       </c>
@@ -11785,7 +11828,7 @@
         <v>lab  var bc_pg60o_cpsl "Utilidades totales cp sl otras ocupaciones "</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>524</v>
       </c>
@@ -11806,7 +11849,7 @@
         <v>lab  var bc_pg80p "Utilidades totales coop principal "</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>524</v>
       </c>
@@ -11827,7 +11870,7 @@
         <v>lab  var bc_pg80o "Utilidades totales coop otras ocupaciones "</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>524</v>
       </c>
@@ -11848,7 +11891,7 @@
         <v>lab  var bc_pg121 "Alquiler"</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>524</v>
       </c>
@@ -11869,7 +11912,7 @@
         <v>lab  var bc_pg122 "Alquiler (exterior)"</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>524</v>
       </c>
@@ -11890,7 +11933,7 @@
         <v>lab  var bc_pg131 "Intereses"</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>524</v>
       </c>
@@ -11911,7 +11954,7 @@
         <v>lab  var bc_pg132 "Intereses (exterior)"</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>524</v>
       </c>
@@ -11932,7 +11975,7 @@
         <v>lab  var bc_otras_utilidades "Otras utilidades imputables al hogar"</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>524</v>
       </c>
@@ -11953,7 +11996,7 @@
         <v>lab  var bc_ot_utilidades "Otras utilidades imputables al hogar"</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>524</v>
       </c>
@@ -11974,7 +12017,7 @@
         <v>lab  var bc_otras_capital "Medianería, pastoreo y ganado a capitalizar"</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>524</v>
       </c>
@@ -11995,7 +12038,7 @@
         <v>lab  var bc_otros_lab "Otros ingresos laborales"</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>524</v>
       </c>
@@ -12016,7 +12059,7 @@
         <v>lab  var bc_otros_benef "Beneficios sociales "</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>524</v>
       </c>
@@ -12037,7 +12080,7 @@
         <v>lab  var bc_pag_at "Pagos atrasados"</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>524</v>
       </c>
@@ -12058,7 +12101,7 @@
         <v>lab  var bc_pg91 "Jubilaciones o pensiones"</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>524</v>
       </c>
@@ -12079,7 +12122,7 @@
         <v>lab  var bc_pg92 "Jubilaciones o pensiones del exterior"</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>524</v>
       </c>
@@ -12100,7 +12143,7 @@
         <v>lab  var bc_pg911 "Jubilaciones"</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>524</v>
       </c>
@@ -12121,7 +12164,7 @@
         <v>lab  var bc_pg912 "Pensiones"</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>524</v>
       </c>
@@ -12142,7 +12185,7 @@
         <v>lab  var bc_pg921 "Jubilaciones del exterior"</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>524</v>
       </c>
@@ -12163,7 +12206,7 @@
         <v>lab  var bc_pg922 "Pensiones del exterior"</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>524</v>
       </c>
@@ -12184,7 +12227,7 @@
         <v>lab  var bc_pg101 "Becas o subsidio"</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>524</v>
       </c>
@@ -12205,7 +12248,7 @@
         <v>lab  var bc_pg102 "Becas o subsidio del exterior"</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>524</v>
       </c>
@@ -12226,7 +12269,7 @@
         <v>lab  var bc_pg111 "Contribuciones"</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>524</v>
       </c>
@@ -12247,7 +12290,7 @@
         <v>lab  var bc_pg112 "Contribuciones del exterior"</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>524</v>
       </c>
@@ -12268,7 +12311,7 @@
         <v>lab  var bc_pa11 "Ingreso agropecuario 11"</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>524</v>
       </c>
@@ -12289,7 +12332,7 @@
         <v>lab  var bc_pa12 "Ingreso agropecuario 12"</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>524</v>
       </c>
@@ -12310,7 +12353,7 @@
         <v>lab  var bc_pa13 "Ingreso agropecuario 13"</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>524</v>
       </c>
@@ -12331,7 +12374,7 @@
         <v>lab  var bc_pa21 "Ingreso agropecuario 21"</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>524</v>
       </c>
@@ -12352,7 +12395,7 @@
         <v>lab  var bc_pa22 "Ingreso agropecuario 22"</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>524</v>
       </c>
@@ -12373,7 +12416,7 @@
         <v>lab  var bc_pa31 "Ingreso agropecuario 31"</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>524</v>
       </c>
@@ -12394,7 +12437,7 @@
         <v>lab  var bc_pa32 "Ingreso agropecuario 32"</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>524</v>
       </c>
@@ -12415,7 +12458,7 @@
         <v>lab  var bc_pa33 "Ingreso agropecuario 33"</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>524</v>
       </c>
@@ -12436,7 +12479,7 @@
         <v>lab  var bc_pg191 "Otros ingresos 191"</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>524</v>
       </c>
@@ -12457,7 +12500,7 @@
         <v>lab  var bc_pg192 "Otros ingresos 192"</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>524</v>
       </c>
@@ -12478,7 +12521,7 @@
         <v>lab  var bc_ing_ciud "Ingreso ciudadano"</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>524</v>
       </c>
@@ -12499,7 +12542,7 @@
         <v>lab  var bc_ytdop "Ingreso trabajador dependiente ocupación principal"</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>524</v>
       </c>
@@ -12520,7 +12563,7 @@
         <v>lab  var bc_ytdos "Ingreso trabajador dependiente ocupación secundaria"</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>524</v>
       </c>
@@ -12541,7 +12584,7 @@
         <v>lab  var bc_ytinde "Ingreso trabajador independiente"</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>524</v>
       </c>
@@ -12562,7 +12605,7 @@
         <v>lab  var bc_ytransf "Ingreso por transferencia"</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>524</v>
       </c>
@@ -12583,7 +12626,7 @@
         <v>lab  var bc_pt1 "Ingresos por todos los conceptos"</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>524</v>
       </c>
@@ -12604,7 +12647,7 @@
         <v>lab  var bc_pt2 "Ingreso total de la persona por ocupación principal"</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>524</v>
       </c>
@@ -12625,7 +12668,7 @@
         <v>lab  var bc_pt4 "Ingreso total de la persona por concepto de trabajo"</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>524</v>
       </c>
@@ -12646,7 +12689,7 @@
         <v>lab  var bc_afam "Asignaciones familiares"</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>524</v>
       </c>
@@ -12667,7 +12710,7 @@
         <v>lab  var bc_yciudada "Ingreso ciudadano"</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>524</v>
       </c>
@@ -12688,7 +12731,7 @@
         <v>lab  var bc_yalimpan "Tarjeta alimentaria"</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>524</v>
       </c>
@@ -12709,7 +12752,7 @@
         <v>lab  var bc_yhog "Ingreso del hogar"</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>524</v>
       </c>
@@ -12730,7 +12773,7 @@
         <v>lab  var bc_pg14 "Valor locativo"</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>524</v>
       </c>
@@ -12751,7 +12794,7 @@
         <v>lab  var bc_as_privados "Ingresos de la ocupación principal de asalariados privados"</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>524</v>
       </c>
@@ -12772,7 +12815,7 @@
         <v>lab  var bc_as_publicos "Ingresos de la ocupación principal de asalariados públicos"</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>524</v>
       </c>
@@ -12793,7 +12836,7 @@
         <v>lab  var bc_as_otros "Ingresos totales privados y públicos de otras ocupaciones"</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>524</v>
       </c>
@@ -12814,7 +12857,7 @@
         <v>lab  var bc_asalariados "Ingresos totales asalariados todas ocupaciones"</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>524</v>
       </c>
@@ -12835,7 +12878,7 @@
         <v>lab  var bc_as_agropec "Ingresos totales asalariados agropecuarios"</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>524</v>
       </c>
@@ -12856,7 +12899,7 @@
         <v>lab  var bc_patrones "Ingresos de todas las ocupaciones de los patrones"</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>524</v>
       </c>
@@ -12877,7 +12920,7 @@
         <v>lab  var bc_pat_agropec "Ingresos totales patrones agropecuarios"</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>524</v>
       </c>
@@ -12898,7 +12941,7 @@
         <v>lab  var bc_cpropiasl "Ingresos de todas las ocupaciones de los cpropia sin local"</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>524</v>
       </c>
@@ -12919,7 +12962,7 @@
         <v>lab  var bc_cpropiacl "Ingresos de todas las ocupaciones de los cpropia con local"</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>524</v>
       </c>
@@ -12940,7 +12983,7 @@
         <v>lab  var bc_cp_agropec "Ingresos totales cuenta propia agropecuarios"</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>524</v>
       </c>
@@ -12961,7 +13004,7 @@
         <v>lab  var bc_cooperat "Ingresos de todas las ocupaciones de los cooperativas"</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>524</v>
       </c>
@@ -12982,7 +13025,7 @@
         <v>lab  var bc_ot_agropec "Ingresos totales otros agropecuarios"</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>524</v>
       </c>
@@ -13003,7 +13046,7 @@
         <v>lab  var bc_principal "Ingresos laborales de la ocupación principal (solo asalariados)."</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>524</v>
       </c>
@@ -13024,7 +13067,7 @@
         <v>lab  var bc_ing_lab "Todos los ingresos laborales de todas las ocupaciones para todos los ocupados"</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>524</v>
       </c>
@@ -13045,7 +13088,7 @@
         <v>lab  var bc_utilidades "Ingresos totales por utilidades"</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>524</v>
       </c>
@@ -13066,7 +13109,7 @@
         <v>lab  var bc_alq "Ingresos totales por alquileres"</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>524</v>
       </c>
@@ -13087,7 +13130,7 @@
         <v>lab  var bc_intereses "Ingresos totales por intereses"</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>524</v>
       </c>
@@ -13108,7 +13151,7 @@
         <v>lab  var bc_ut_agropec "Ingresos totales por utilidades agropecuarias"</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>524</v>
       </c>
@@ -13129,7 +13172,7 @@
         <v>lab  var bc_ing_cap "Ingresos del capital (utilidades, alquileres, intereses)"</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>524</v>
       </c>
@@ -13150,7 +13193,7 @@
         <v>lab  var bc_jub_pen "Ingresos por jubilaciones y pensiones"</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>524</v>
       </c>
@@ -13171,7 +13214,7 @@
         <v>lab  var bc_jub_pene "Ingresos por jubilaciones y pensiones del exterior"</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>524</v>
       </c>
@@ -13192,7 +13235,7 @@
         <v>lab  var bc_tarjeta "Ingreso por tarjeta alimentaria"</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>524</v>
       </c>
@@ -13213,7 +13256,7 @@
         <v>lab  var bc_bs_sociales "Ingresos por transferencias sociales "</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>524</v>
       </c>
@@ -13234,7 +13277,7 @@
         <v>lab  var bc_transf_hog "Ingresos totales por transferencias al hogar"</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>524</v>
       </c>
@@ -13255,7 +13298,7 @@
         <v>lab  var bc_beneficios "Ingresos por beneficios y transferencias sociales"</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>524</v>
       </c>
@@ -13276,7 +13319,7 @@
         <v>lab  var bc_ipc "IPC para montevideo a diciembre 2006"</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>524</v>
       </c>
@@ -13297,7 +13340,7 @@
         <v>lab  var bc_ipc_nuevo "IPC para montevideo y el interior a diciembre 2010"</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>524</v>
       </c>
@@ -13318,7 +13361,7 @@
         <v>lab  var bc_ipc_tot "IPC total país"</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>524</v>
       </c>
@@ -13339,7 +13382,7 @@
         <v>lab  var bc_cuotmilit "Cuotas militares"</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>524</v>
       </c>
@@ -13360,7 +13403,7 @@
         <v>lab  var bc_cuotabps "Cuota pagada por DISSE, BPS o similar jubilado o pensionista"</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>524</v>
       </c>
@@ -13381,7 +13424,7 @@
         <v>lab  var bc_disse_p "Cuota pagada por DISSE, BPS o similar en ocupación principal"</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>524</v>
       </c>
@@ -13402,7 +13445,7 @@
         <v>lab  var bc_disse_o "Cuota pagada por DISSE, BPS o similar en otras ocupaciones"</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>524</v>
       </c>
@@ -13423,7 +13466,7 @@
         <v>lab  var bc_disse "Cuota pagada por DISSE, BPS o similar en seguro de paro"</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>524</v>
       </c>
@@ -13445,7 +13488,7 @@
 "</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>524</v>
       </c>
@@ -13467,7 +13510,7 @@
 "</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>524</v>
       </c>
@@ -13488,7 +13531,7 @@
         <v>lab  var bc_ht11_iecon "Ingreso del hogar por todo concepto replicado INE"</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>524</v>
       </c>
@@ -13509,7 +13552,7 @@
         <v>lab  var bc_ht11_sss "Ingreso del hogar por todo concepto (con val loc) sin seguro de salud"</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>524</v>
       </c>
@@ -13530,7 +13573,7 @@
         <v>lab  var bc_salud "Ingresos por seguro de salud imputados al hogar"</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>524</v>
       </c>
@@ -13551,7 +13594,7 @@
         <v>lab  var bc_ht11_css "Ingreso del hogar por todo concepto (con val loc) con seguro de salud"</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>524</v>
       </c>
@@ -13572,7 +13615,7 @@
         <v>lab  var bc_percap_iecon "Ingreso per cápita del hogar con bc_ht11_sss"</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>524</v>
       </c>
@@ -13600,19 +13643,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>606</v>
       </c>
@@ -13620,7 +13663,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>606</v>
       </c>
@@ -13628,7 +13671,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>606</v>
       </c>
@@ -13636,7 +13679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>606</v>
       </c>
@@ -13644,7 +13687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>606</v>
       </c>
@@ -13652,7 +13695,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>606</v>
       </c>
@@ -13660,7 +13703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>606</v>
       </c>
@@ -13668,7 +13711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>606</v>
       </c>
@@ -13676,7 +13719,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>606</v>
       </c>
@@ -13684,7 +13727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>606</v>
       </c>
@@ -13692,7 +13735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>606</v>
       </c>
@@ -13700,7 +13743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>606</v>
       </c>
@@ -13708,7 +13751,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>606</v>
       </c>
@@ -13716,7 +13759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>606</v>
       </c>
@@ -13724,7 +13767,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>606</v>
       </c>
@@ -13732,7 +13775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>606</v>
       </c>
@@ -13740,7 +13783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>606</v>
       </c>
@@ -13748,7 +13791,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>606</v>
       </c>
@@ -13756,7 +13799,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>606</v>
       </c>
@@ -13764,7 +13807,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>606</v>
       </c>
@@ -13772,7 +13815,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>606</v>
       </c>
@@ -13780,7 +13823,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>606</v>
       </c>
@@ -13788,7 +13831,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>606</v>
       </c>
@@ -13802,22 +13845,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>602</v>
       </c>
@@ -13844,7 +13887,7 @@
         <v>lab def bc_filtloc 1 "Localidades de más de 5mil habitantes" ///</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>2</v>
       </c>
@@ -13862,7 +13905,7 @@
         <v xml:space="preserve">  2 "Localidades de 5mil habitantes o menos" </v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>602</v>
       </c>
@@ -13889,7 +13932,7 @@
         <v>lab def bc_mes 1 "Enero" ///</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>2</v>
       </c>
@@ -13910,7 +13953,7 @@
         <v xml:space="preserve">  2 "Febrero" ///</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>3</v>
       </c>
@@ -13931,7 +13974,7 @@
         <v xml:space="preserve">  3 "Marzo" ///</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>4</v>
       </c>
@@ -13952,7 +13995,7 @@
         <v xml:space="preserve">  4 "Abril" ///</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>5</v>
       </c>
@@ -13973,7 +14016,7 @@
         <v xml:space="preserve">  5 "Mayo" ///</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>6</v>
       </c>
@@ -13994,7 +14037,7 @@
         <v xml:space="preserve">  6 "Junio" ///</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>7</v>
       </c>
@@ -14015,7 +14058,7 @@
         <v xml:space="preserve">  7 "Julio" ///</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>8</v>
       </c>
@@ -14036,7 +14079,7 @@
         <v xml:space="preserve">  8 "Agosto" ///</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>9</v>
       </c>
@@ -14057,7 +14100,7 @@
         <v xml:space="preserve">  9 "Septiembre" ///</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>10</v>
       </c>
@@ -14078,7 +14121,7 @@
         <v xml:space="preserve">  10 "Octubre" ///</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>11</v>
       </c>
@@ -14099,7 +14142,7 @@
         <v xml:space="preserve">  11 "Noviembre" ///</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>12</v>
       </c>
@@ -14117,7 +14160,7 @@
         <v xml:space="preserve">  12 "Diciembre" </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>602</v>
       </c>
@@ -14144,7 +14187,7 @@
         <v>lab def bc_dpto 1 "Montevideo" ///</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2</v>
       </c>
@@ -14165,7 +14208,7 @@
         <v xml:space="preserve">  2 "Artigas" ///</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>3</v>
       </c>
@@ -14186,7 +14229,7 @@
         <v xml:space="preserve">  3 "Canelones" ///</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>4</v>
       </c>
@@ -14207,7 +14250,7 @@
         <v xml:space="preserve">  4 "Cerro Largo" ///</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>5</v>
       </c>
@@ -14228,7 +14271,7 @@
         <v xml:space="preserve">  5 "Colonia" ///</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>6</v>
       </c>
@@ -14249,7 +14292,7 @@
         <v xml:space="preserve">  6 "Durazno" ///</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>7</v>
       </c>
@@ -14270,7 +14313,7 @@
         <v xml:space="preserve">  7 "Flores" ///</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>8</v>
       </c>
@@ -14291,7 +14334,7 @@
         <v xml:space="preserve">  8 "Florida" ///</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>9</v>
       </c>
@@ -14312,7 +14355,7 @@
         <v xml:space="preserve">  9 "Lavalleja" ///</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>10</v>
       </c>
@@ -14333,7 +14376,7 @@
         <v xml:space="preserve">  10 "Maldonado" ///</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>11</v>
       </c>
@@ -14354,7 +14397,7 @@
         <v xml:space="preserve">  11 "Paysandú" ///</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>12</v>
       </c>
@@ -14375,7 +14418,7 @@
         <v xml:space="preserve">  12 "Río Negro" ///</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>13</v>
       </c>
@@ -14396,7 +14439,7 @@
         <v xml:space="preserve">  13 "Rivera" ///</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>14</v>
       </c>
@@ -14417,7 +14460,7 @@
         <v xml:space="preserve">  14 "Rocha" ///</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>15</v>
       </c>
@@ -14438,7 +14481,7 @@
         <v xml:space="preserve">  15 "Salto " ///</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>16</v>
       </c>
@@ -14459,7 +14502,7 @@
         <v xml:space="preserve">  16 "San José " ///</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>17</v>
       </c>
@@ -14480,7 +14523,7 @@
         <v xml:space="preserve">  17 "Soriano" ///</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>18</v>
       </c>
@@ -14501,7 +14544,7 @@
         <v xml:space="preserve">  18 "Tacuarembó " ///</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>19</v>
       </c>
@@ -14519,7 +14562,7 @@
         <v xml:space="preserve">  19 "Treinta y Tres" </v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>602</v>
       </c>
@@ -14546,7 +14589,7 @@
         <v>lab def bc_ccz 1 "CCZ 1" ///</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>2</v>
       </c>
@@ -14567,7 +14610,7 @@
         <v xml:space="preserve">  2 "CCZ 2" ///</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>3</v>
       </c>
@@ -14588,7 +14631,7 @@
         <v xml:space="preserve">  3 "CCZ 3" ///</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>4</v>
       </c>
@@ -14609,7 +14652,7 @@
         <v xml:space="preserve">  4 "CCZ 4" ///</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>5</v>
       </c>
@@ -14630,7 +14673,7 @@
         <v xml:space="preserve">  5 "CCZ 5" ///</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>6</v>
       </c>
@@ -14651,7 +14694,7 @@
         <v xml:space="preserve">  6 "CCZ 6" ///</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>7</v>
       </c>
@@ -14672,7 +14715,7 @@
         <v xml:space="preserve">  7 "CCZ 7" ///</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>8</v>
       </c>
@@ -14693,7 +14736,7 @@
         <v xml:space="preserve">  8 "CCZ 8" ///</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>9</v>
       </c>
@@ -14714,7 +14757,7 @@
         <v xml:space="preserve">  9 "CCZ 9" ///</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>10</v>
       </c>
@@ -14735,7 +14778,7 @@
         <v xml:space="preserve">  10 "CCZ 10" ///</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>11</v>
       </c>
@@ -14756,7 +14799,7 @@
         <v xml:space="preserve">  11 "CCZ 11" ///</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>12</v>
       </c>
@@ -14777,7 +14820,7 @@
         <v xml:space="preserve">  12 "CCZ 12" ///</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>13</v>
       </c>
@@ -14798,7 +14841,7 @@
         <v xml:space="preserve">  13 "CCZ 13" ///</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>14</v>
       </c>
@@ -14819,7 +14862,7 @@
         <v xml:space="preserve">  14 "CCZ 14" ///</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>15</v>
       </c>
@@ -14840,7 +14883,7 @@
         <v xml:space="preserve">  15 "CCZ 15" ///</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>16</v>
       </c>
@@ -14861,7 +14904,7 @@
         <v xml:space="preserve">  16 "CCZ 16" ///</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>17</v>
       </c>
@@ -14882,7 +14925,7 @@
         <v xml:space="preserve">  17 "CCZ 17" ///</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>18</v>
       </c>
@@ -14900,7 +14943,7 @@
         <v xml:space="preserve">  18 "CCZ 18" </v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>602</v>
       </c>
@@ -14927,7 +14970,7 @@
         <v>lab def bc_area 1 "Montevideo" ///</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>2</v>
       </c>
@@ -14948,7 +14991,7 @@
         <v xml:space="preserve">  2 "Interior &gt;5000" ///</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>3</v>
       </c>
@@ -14969,7 +15012,7 @@
         <v xml:space="preserve">  3 "Interior &lt;5000" ///</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>4</v>
       </c>
@@ -14987,7 +15030,7 @@
         <v xml:space="preserve">  4 "Rural disperso" </v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>602</v>
       </c>
@@ -15014,7 +15057,7 @@
         <v>lab def bc_pe2 1 "Varón" ///</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>2</v>
       </c>
@@ -15032,7 +15075,7 @@
         <v xml:space="preserve">  2 "Mujer" </v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>602</v>
       </c>
@@ -15059,7 +15102,7 @@
         <v>lab def bc_pe4 1 "Jefe" ///</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>2</v>
       </c>
@@ -15080,7 +15123,7 @@
         <v xml:space="preserve">  2 "Cónyugue" ///</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>3</v>
       </c>
@@ -15101,7 +15144,7 @@
         <v xml:space="preserve">  3 "Hijo" ///</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>4</v>
       </c>
@@ -15122,7 +15165,7 @@
         <v xml:space="preserve">  4 "Padres o suegros " ///</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>5</v>
       </c>
@@ -15143,7 +15186,7 @@
         <v xml:space="preserve">  5 "Otro pariente" ///</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>6</v>
       </c>
@@ -15164,7 +15207,7 @@
         <v xml:space="preserve">  6 "Otro no pariente" ///</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>7</v>
       </c>
@@ -15182,7 +15225,7 @@
         <v xml:space="preserve">  7 "Servicio doméstico" </v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>602</v>
       </c>
@@ -15209,7 +15252,7 @@
         <v>lab def bc_pe5 1 "Unión libre" ///</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>2</v>
       </c>
@@ -15230,7 +15273,7 @@
         <v xml:space="preserve">  2 "Casado" ///</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>3</v>
       </c>
@@ -15251,7 +15294,7 @@
         <v xml:space="preserve">  3 "Divorciado o separado" ///</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>4</v>
       </c>
@@ -15272,7 +15315,7 @@
         <v xml:space="preserve">  4 "Viudo" ///</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>5</v>
       </c>
@@ -15290,7 +15333,7 @@
         <v xml:space="preserve">  5 "Soltero" </v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>602</v>
       </c>
@@ -15317,7 +15360,7 @@
         <v>lab def bc_pe6a 1 "Sin atención" ///</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>2</v>
       </c>
@@ -15338,7 +15381,7 @@
         <v xml:space="preserve">  2 "Mutualista" ///</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>3</v>
       </c>
@@ -15359,7 +15402,7 @@
         <v xml:space="preserve">  3 "Disse" ///</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>4</v>
       </c>
@@ -15380,7 +15423,7 @@
         <v xml:space="preserve">  4 "Salud pública" ///</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>5</v>
       </c>
@@ -15398,7 +15441,7 @@
         <v xml:space="preserve">  5 "Otros privados" </v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>602</v>
       </c>
@@ -15425,7 +15468,7 @@
         <v>lab def bc_pe6b 1 "Sin atención" ///</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>2</v>
       </c>
@@ -15446,7 +15489,7 @@
         <v xml:space="preserve">  2 "Mutualista" ///</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>3</v>
       </c>
@@ -15467,7 +15510,7 @@
         <v xml:space="preserve">  3 "Salud pública" ///</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>4</v>
       </c>
@@ -15485,7 +15528,7 @@
         <v xml:space="preserve">  4 "Otros privados" </v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>602</v>
       </c>
@@ -15512,7 +15555,7 @@
         <v>lab def bc_pe13 1 "Público" ///</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>2</v>
       </c>
@@ -15530,7 +15573,7 @@
         <v xml:space="preserve">  2 "Privado" </v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>602</v>
       </c>
@@ -15557,7 +15600,7 @@
         <v>lab def bc_nivel 0 "Sin instrucción" ///</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>1</v>
       </c>
@@ -15578,7 +15621,7 @@
         <v xml:space="preserve">  1 "Primaria" ///</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>2</v>
       </c>
@@ -15599,7 +15642,7 @@
         <v xml:space="preserve">  2 "Secundaria" ///</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>3</v>
       </c>
@@ -15620,7 +15663,7 @@
         <v xml:space="preserve">  3 "Enseñanza técnica o UTU" ///</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>4</v>
       </c>
@@ -15641,7 +15684,7 @@
         <v xml:space="preserve">  4 "Magisterio o Profesorado" ///</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>5</v>
       </c>
@@ -15659,7 +15702,7 @@
         <v xml:space="preserve">  5 "Universidad o similar" </v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>602</v>
       </c>
@@ -15686,7 +15729,7 @@
         <v>lab def bc_pobp 1 "Menor de 14 años" ///</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>2</v>
       </c>
@@ -15707,7 +15750,7 @@
         <v xml:space="preserve">  2 "Ocupados" ///</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>3</v>
       </c>
@@ -15728,7 +15771,7 @@
         <v xml:space="preserve">  3 "Desocupados, busca trabajo por primera vez" ///</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>4</v>
       </c>
@@ -15749,7 +15792,7 @@
         <v xml:space="preserve">  4 "Desocupados" ///</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>5</v>
       </c>
@@ -15770,7 +15813,7 @@
         <v xml:space="preserve">  5 "Desocupados , seguro de desempleo" ///</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>6</v>
       </c>
@@ -15791,7 +15834,7 @@
         <v xml:space="preserve">  6 "Inactivo – tareas del hogar" ///</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>7</v>
       </c>
@@ -15812,7 +15855,7 @@
         <v xml:space="preserve">  7 "Inactivo – Estudiante" ///</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>8</v>
       </c>
@@ -15833,7 +15876,7 @@
         <v xml:space="preserve">  8 "Inactivo – Rentista" ///</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>9</v>
       </c>
@@ -15854,7 +15897,7 @@
         <v xml:space="preserve">  9 "Inactivo – Pensionista y Jubilado" ///</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>11</v>
       </c>
@@ -15872,7 +15915,7 @@
         <v xml:space="preserve">  11 "Inactivo – Otros" </v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>602</v>
       </c>
@@ -15899,7 +15942,7 @@
         <v>lab def bc_pf41 1 "Asalariado privado" ///</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>2</v>
       </c>
@@ -15920,7 +15963,7 @@
         <v xml:space="preserve">  2 "Asalariado público" ///</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>3</v>
       </c>
@@ -15941,7 +15984,7 @@
         <v xml:space="preserve">  3 "Cooperativista" ///</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>4</v>
       </c>
@@ -15962,7 +16005,7 @@
         <v xml:space="preserve">  4 "Patrón" ///</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>5</v>
       </c>
@@ -15983,7 +16026,7 @@
         <v xml:space="preserve">  5 "Cuenta propia s/l" ///</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>6</v>
       </c>
@@ -16004,7 +16047,7 @@
         <v xml:space="preserve">  6 "Cuenta propia c/l" ///</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>7</v>
       </c>
@@ -16022,7 +16065,7 @@
         <v xml:space="preserve">  7 "Otras actividades" </v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>602</v>
       </c>
@@ -16049,7 +16092,7 @@
         <v>lab def bc_cat2 1 "Asalariado privado" ///</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C105">
         <v>2</v>
       </c>
@@ -16070,7 +16113,7 @@
         <v xml:space="preserve">  2 "Asalariado público" ///</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>3</v>
       </c>
@@ -16091,7 +16134,7 @@
         <v xml:space="preserve">  3 "Patrón" ///</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>4</v>
       </c>
@@ -16112,7 +16155,7 @@
         <v xml:space="preserve">  4 "Cuenta propia" ///</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>5</v>
       </c>
@@ -16130,7 +16173,7 @@
         <v xml:space="preserve">  5 "Otras actividades" </v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>602</v>
       </c>
@@ -16157,7 +16200,7 @@
         <v>lab def bc_pf081 1 "Menos de 10 personas" ///</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C110">
         <v>2</v>
       </c>
@@ -16175,7 +16218,7 @@
         <v xml:space="preserve">  2 "10 personas o más" </v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>602</v>
       </c>
@@ -16202,7 +16245,7 @@
         <v>lab def bc_pf082 1 "Una persona" ///</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>2</v>
       </c>
@@ -16223,7 +16266,7 @@
         <v xml:space="preserve">  2 "Dos a cuatro personas" ///</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>3</v>
       </c>
@@ -16241,7 +16284,7 @@
         <v xml:space="preserve">  3 "Cinco a nueve personas" </v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>602</v>
       </c>
@@ -16268,7 +16311,7 @@
         <v>lab def bc_rama 1 "Agropecuaria y Minería" ///</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C115">
         <v>2</v>
       </c>
@@ -16289,7 +16332,7 @@
         <v xml:space="preserve">  2 "Industria Manufactureras" ///</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C116">
         <v>3</v>
       </c>
@@ -16310,7 +16353,7 @@
         <v xml:space="preserve">  3 "Electricidad, Gas y Agua" ///</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C117">
         <v>4</v>
       </c>
@@ -16331,7 +16374,7 @@
         <v xml:space="preserve">  4 "Construcción" ///</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C118">
         <v>5</v>
       </c>
@@ -16352,7 +16395,7 @@
         <v xml:space="preserve">  5 "Comercio, Restaurantes y Hoteles" ///</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C119">
         <v>6</v>
       </c>
@@ -16373,7 +16416,7 @@
         <v xml:space="preserve">  6 "Transportes y Comunicaciones" ///</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C120">
         <v>7</v>
       </c>
@@ -16394,7 +16437,7 @@
         <v xml:space="preserve">  7 "Servicios a empresas" ///</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C121">
         <v>8</v>
       </c>
@@ -16412,7 +16455,7 @@
         <v xml:space="preserve">  8 "Servicios comunales, sociales y personales" </v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>602</v>
       </c>
@@ -16439,7 +16482,7 @@
         <v>lab def bc_tipo_ocup 0 "Fuerzas Armadas" ///</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123">
         <v>1</v>
       </c>
@@ -16460,7 +16503,7 @@
         <v xml:space="preserve">  1 "Miembro de poder ejecutivo y cuerpos legislativos y personal directivo de la administración pública y de las empresas" ///</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C124">
         <v>2</v>
       </c>
@@ -16481,7 +16524,7 @@
         <v xml:space="preserve">  2 "Profesionales científicos e intelectuales" ///</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C125">
         <v>3</v>
       </c>
@@ -16502,7 +16545,7 @@
         <v xml:space="preserve">  3 "Técnicos y profesionales de nivel medio" ///</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126">
         <v>4</v>
       </c>
@@ -16523,7 +16566,7 @@
         <v xml:space="preserve">  4 "Empleados de oficina" ///</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C127">
         <v>5</v>
       </c>
@@ -16544,7 +16587,7 @@
         <v xml:space="preserve">  5 "Trabajadores de los servicios y vendedores de comercios y mercados" ///</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C128">
         <v>6</v>
       </c>
@@ -16565,7 +16608,7 @@
         <v xml:space="preserve">  6 "Agricultores y trabajadores calificados agropecuarios y pesqueros" ///</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C129">
         <v>7</v>
       </c>
@@ -16586,7 +16629,7 @@
         <v xml:space="preserve">  7 "Oficiales, operarios y artesanos de artes mecánicas y de otros oficios" ///</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C130">
         <v>8</v>
       </c>
@@ -16607,7 +16650,7 @@
         <v xml:space="preserve">  8 "Operadores y montadores de instalaciones y máquinas" ///</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C131">
         <v>9</v>
       </c>
@@ -16625,7 +16668,7 @@
         <v xml:space="preserve">  9 "Trabajadores no calificados" </v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>602</v>
       </c>
@@ -16652,7 +16695,7 @@
         <v>lab def bc_pf04 1 "Licencia" ///</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C133">
         <v>2</v>
       </c>
@@ -16673,7 +16716,7 @@
         <v xml:space="preserve">  2 "Poco trabajo o mal tiempo" ///</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C134">
         <v>3</v>
       </c>
@@ -16694,7 +16737,7 @@
         <v xml:space="preserve">  3 "Huelga o estar suspendido" ///</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C135">
         <v>4</v>
       </c>
@@ -16712,7 +16755,7 @@
         <v xml:space="preserve">  4 "Otro motivo" </v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>602</v>
       </c>
@@ -16739,7 +16782,7 @@
         <v>lab def bc_pf22 1 "Volverá a trabajar en 30 días" ///</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C137">
         <v>2</v>
       </c>
@@ -16760,7 +16803,7 @@
         <v xml:space="preserve">  2 "Espera resultados de gestiones" ///</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C138">
         <v>3</v>
       </c>
@@ -16781,7 +16824,7 @@
         <v xml:space="preserve">  3 "Buscó antes y dejo de buscar" ///</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C139">
         <v>4</v>
       </c>
@@ -16799,7 +16842,7 @@
         <v xml:space="preserve">  4 "Otros motivos" </v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>602</v>
       </c>
@@ -16826,7 +16869,7 @@
         <v>lab def bc_pf34 1 "Cerró el establecimiento" ///</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C141">
         <v>2</v>
       </c>
@@ -16847,7 +16890,7 @@
         <v xml:space="preserve">  2 "Lo despidieron" ///</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C142">
         <v>3</v>
       </c>
@@ -16865,7 +16908,7 @@
         <v xml:space="preserve">  3 "Otro motivo" </v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>602</v>
       </c>
@@ -16892,7 +16935,7 @@
         <v>lab def sino 1 "Si" ///</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C146">
         <v>2</v>
       </c>
@@ -16916,19 +16959,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>605</v>
       </c>
@@ -16943,7 +16986,7 @@
         <v>lab val bc_filtloc bc_filtloc</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>605</v>
       </c>
@@ -16958,7 +17001,7 @@
         <v>lab val bc_mes bc_mes</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>605</v>
       </c>
@@ -16973,7 +17016,7 @@
         <v>lab val bc_dpto bc_dpto</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>605</v>
       </c>
@@ -16988,7 +17031,7 @@
         <v>lab val bc_ccz bc_ccz</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>605</v>
       </c>
@@ -17003,7 +17046,7 @@
         <v>lab val bc_area bc_area</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>605</v>
       </c>
@@ -17018,7 +17061,7 @@
         <v>lab val bc_pe2 bc_pe2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>605</v>
       </c>
@@ -17033,7 +17076,7 @@
         <v>lab val bc_pe4 bc_pe4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>605</v>
       </c>
@@ -17048,7 +17091,7 @@
         <v>lab val bc_pe5 bc_pe5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>605</v>
       </c>
@@ -17063,7 +17106,7 @@
         <v>lab val bc_pe6a bc_pe6a</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>605</v>
       </c>
@@ -17078,7 +17121,7 @@
         <v>lab val bc_pe6b bc_pe6b</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>605</v>
       </c>
@@ -17093,7 +17136,7 @@
         <v>lab val bc_pe13 bc_pe13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>605</v>
       </c>
@@ -17108,7 +17151,7 @@
         <v>lab val bc_nivel bc_nivel</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>605</v>
       </c>
@@ -17123,7 +17166,7 @@
         <v>lab val bc_pobp bc_pobp</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>605</v>
       </c>
@@ -17138,7 +17181,7 @@
         <v>lab val bc_pf41 bc_pf41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>605</v>
       </c>
@@ -17153,7 +17196,7 @@
         <v>lab val bc_cat2 bc_cat2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>605</v>
       </c>
@@ -17168,7 +17211,7 @@
         <v>lab val bc_pf081 bc_pf081</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>605</v>
       </c>
@@ -17183,7 +17226,7 @@
         <v>lab val bc_pf082 bc_pf082</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>605</v>
       </c>
@@ -17198,7 +17241,7 @@
         <v>lab val bc_rama bc_rama</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>605</v>
       </c>
@@ -17213,7 +17256,7 @@
         <v>lab val bc_tipo_ocup bc_tipo_ocup</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>605</v>
       </c>
@@ -17228,7 +17271,7 @@
         <v>lab val bc_pf04 bc_pf04</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>605</v>
       </c>
@@ -17243,7 +17286,7 @@
         <v>lab val bc_pf22 bc_pf22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>605</v>
       </c>
@@ -17258,7 +17301,7 @@
         <v>lab val bc_pf34 bc_pf34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>605</v>
       </c>
@@ -17270,42 +17313,42 @@
         <v>lab val bc_pe11 bc_pe12 bc_finalizo bc_pf21 bc_reg_disse bc_register bc_register2 bc_subocupado sino</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>604</v>
       </c>
